--- a/Brain/ML/Part 2 - Regression/Section 5 - Multiple Linear Regression/Python/Tài liệu/Multiple Linear Regression.xlsx
+++ b/Brain/ML/Part 2 - Regression/Section 5 - Multiple Linear Regression/Python/Tài liệu/Multiple Linear Regression.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VD trong project" sheetId="2" r:id="rId1"/>
     <sheet name="VD của file pdf tài liệu" sheetId="3" r:id="rId2"/>
-    <sheet name="Vô số nghiệm" sheetId="4" r:id="rId3"/>
+    <sheet name="Kết quả khác" sheetId="5" r:id="rId3"/>
+    <sheet name="Vô số nghiệm" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="new_1" localSheetId="2">'Kết quả khác'!$C$2:$E$14</definedName>
     <definedName name="new_1" localSheetId="1">'VD của file pdf tài liệu'!$C$2:$E$16</definedName>
     <definedName name="new_1" localSheetId="0">'VD trong project'!$C$2:$H$41</definedName>
+    <definedName name="new_1_1" localSheetId="2">'Kết quả khác'!$G$42:$J$42</definedName>
     <definedName name="new_1_1" localSheetId="1">'VD của file pdf tài liệu'!$G$44:$J$44</definedName>
     <definedName name="new_1_1" localSheetId="0">'VD trong project'!$J$72:$O$81</definedName>
-    <definedName name="new_1_1" localSheetId="2">'Vô số nghiệm'!$C$2:$E$5</definedName>
-    <definedName name="new_1_2" localSheetId="2">'Vô số nghiệm'!$G$34:$J$34</definedName>
+    <definedName name="new_1_1" localSheetId="3">'Vô số nghiệm'!$C$2:$E$5</definedName>
+    <definedName name="new_1_2" localSheetId="3">'Vô số nghiệm'!$G$34:$J$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,7 +69,19 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="new 14" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" name="new 1312" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="932" sourceFile="C:\Users\Admin\Desktop\new 1.txt" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="new 14" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="932" sourceFile="C:\Users\Admin\Desktop\new 1.txt" tab="0" comma="1">
       <textFields count="6">
         <textField/>
@@ -78,7 +93,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="new 141" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" name="new 141" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="932" sourceFile="C:\Users\Admin\Desktop\new 1.txt" tab="0" comma="1">
       <textFields count="6">
         <textField/>
@@ -90,7 +105,19 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="new 1411" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" name="new 1411" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="932" sourceFile="C:\Users\Admin\Desktop\new 1.txt" tab="0" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="new 1412" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="932" sourceFile="C:\Users\Admin\Desktop\new 1.txt" tab="0" comma="1">
       <textFields count="6">
         <textField/>
@@ -106,10 +133,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
   <si>
     <t>y'</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -120,7 +147,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -131,13 +158,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -148,7 +175,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -159,7 +186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +202,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -186,7 +213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -202,7 +229,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -213,7 +240,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +256,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -240,7 +267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -256,14 +283,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -274,7 +301,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -285,7 +312,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -297,7 +324,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -308,13 +335,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -325,7 +352,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -336,7 +363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -348,7 +375,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -359,13 +386,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -376,7 +403,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -387,7 +414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -399,7 +426,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -410,13 +437,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -427,7 +454,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -438,7 +465,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -450,7 +477,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -461,13 +488,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -478,7 +505,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -489,7 +516,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -501,7 +528,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -512,13 +539,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -529,7 +556,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -540,7 +567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -552,14 +579,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -570,14 +597,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -588,7 +615,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -599,7 +626,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,7 +642,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -626,7 +653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -642,7 +669,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -653,7 +680,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,7 +696,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -680,7 +707,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -696,7 +723,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -707,7 +734,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -723,14 +750,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -741,7 +768,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -752,7 +779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -761,7 +788,7 @@
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -772,7 +799,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -783,28 +810,28 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>mean</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">sum </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -815,7 +842,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -826,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -838,14 +865,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -856,7 +883,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -867,7 +894,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -879,7 +906,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -890,7 +917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -906,7 +933,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -917,7 +944,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -929,14 +956,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -947,7 +974,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -958,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -970,7 +997,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -981,7 +1008,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -997,7 +1024,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1008,7 +1035,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1020,7 +1047,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1031,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1047,7 +1074,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1058,7 +1085,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1070,14 +1097,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1088,7 +1115,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1099,7 +1126,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1111,7 +1138,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1122,7 +1149,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1138,7 +1165,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1149,7 +1176,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1161,7 +1188,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1172,7 +1199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1188,7 +1215,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1199,7 +1226,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1211,7 +1238,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1222,7 +1249,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1238,7 +1265,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1249,7 +1276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1261,14 +1288,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1279,7 +1306,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1290,7 +1317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1302,7 +1329,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1313,7 +1340,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1329,7 +1356,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1340,7 +1367,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1352,7 +1379,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1363,7 +1390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1379,7 +1406,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1390,7 +1417,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1402,7 +1429,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1413,7 +1440,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1429,7 +1456,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1440,7 +1467,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1452,7 +1479,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1463,7 +1490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1479,7 +1506,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1490,7 +1517,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1502,14 +1529,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1520,7 +1547,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1531,7 +1558,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1543,7 +1570,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1554,7 +1581,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1570,7 +1597,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1581,7 +1608,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1593,7 +1620,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1604,7 +1631,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1620,7 +1647,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1631,7 +1658,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1643,7 +1670,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1654,7 +1681,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1670,7 +1697,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1681,7 +1708,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1693,7 +1720,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1704,7 +1731,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1720,7 +1747,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1731,7 +1758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1743,7 +1770,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1754,7 +1781,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1770,7 +1797,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1781,7 +1808,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1793,14 +1820,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1811,7 +1838,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1822,7 +1849,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1833,13 +1860,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1850,7 +1877,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1861,7 +1888,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1872,13 +1899,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1889,7 +1916,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1900,7 +1927,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1911,13 +1938,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1928,7 +1955,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1939,7 +1966,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1950,13 +1977,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1967,7 +1994,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1978,7 +2005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1989,13 +2016,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2006,7 +2033,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2017,22 +2044,22 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Y</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>y*y</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>y'</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2043,14 +2070,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2061,7 +2088,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2072,7 +2099,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2084,7 +2111,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2095,13 +2122,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2112,7 +2139,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2123,7 +2150,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2135,7 +2162,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2146,13 +2173,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2163,30 +2190,30 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>mean</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">sum </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2197,7 +2224,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2208,7 +2235,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2220,14 +2247,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2238,7 +2265,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2249,7 +2276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2261,14 +2288,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2279,7 +2306,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2290,7 +2317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2302,14 +2329,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2320,7 +2347,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2331,7 +2358,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2342,13 +2369,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2359,7 +2386,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2370,7 +2397,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2381,13 +2408,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2398,7 +2425,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2409,18 +2436,18 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Y</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>y*y</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2431,14 +2458,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2449,7 +2476,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2460,7 +2487,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2472,7 +2499,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2483,13 +2510,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2500,7 +2527,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2511,7 +2538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2523,7 +2550,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2534,13 +2561,13 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2551,7 +2578,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2562,7 +2589,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2574,14 +2601,14 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2592,34 +2619,34 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Tính b1, b2, b3 đang không đúng</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>mean</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">sum </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2630,7 +2657,7 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2641,7 +2668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -2653,57 +2680,63 @@
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Kết quả đang đéo đúng</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kết quả của sheet này vs sheet bên trái đang khác nhau là do sheet này có N = 13, còn sheet trái N = 15</t>
+  </si>
+  <si>
+    <t>X_test</t>
+  </si>
+  <si>
+    <t>X_train
+y_train</t>
+  </si>
+  <si>
+    <t>y_test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2712,7 +2745,7 @@
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2720,18 +2753,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2745,17 +2784,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2785,8 +2833,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -2864,7 +2912,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -2937,8 +2985,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -3016,7 +3064,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -3089,8 +3137,8 @@
       <xdr:rowOff>28963</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -3168,7 +3216,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -3241,8 +3289,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -3320,7 +3368,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -3393,8 +3441,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -3472,7 +3520,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -3545,8 +3593,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -3624,7 +3672,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -3702,8 +3750,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -3781,7 +3829,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -3854,8 +3902,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -3933,7 +3981,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -4006,8 +4054,8 @@
       <xdr:rowOff>28963</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -4085,7 +4133,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -4157,14 +4205,475 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>195261</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38488</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="681039" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1528761" y="7734688"/>
+              <a:ext cx="681039" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+                <a:t>b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="-25000"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:bar>
+                    <m:barPr>
+                      <m:pos m:val="top"/>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:barPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:bar>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1528761" y="7734688"/>
+              <a:ext cx="681039" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+                <a:t>b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="-25000"/>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38488</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="681039" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2386011" y="7734688"/>
+              <a:ext cx="681039" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+                <a:t>b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="-25000"/>
+                <a:t>2</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:bar>
+                    <m:barPr>
+                      <m:pos m:val="top"/>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:barPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:bar>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2386011" y="7734688"/>
+              <a:ext cx="681039" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+                <a:t>b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="-25000"/>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28963</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="681039" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3252786" y="7725163"/>
+              <a:ext cx="681039" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+                <a:t>b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="-25000"/>
+                <a:t>3</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:bar>
+                    <m:barPr>
+                      <m:pos m:val="top"/>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:barPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" baseline="-25000">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:bar>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3252786" y="7725163"/>
+              <a:ext cx="681039" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+                <a:t>b</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="-25000"/>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="-25000">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>547686</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28963</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -4242,7 +4751,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -4315,8 +4824,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -4394,7 +4903,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -4467,8 +4976,8 @@
       <xdr:rowOff>38488</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="681039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -4546,7 +5055,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -4615,15 +5124,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1_1" connectionId="5" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1" connectionId="1" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1_1" connectionId="4" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1_1" connectionId="5" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1_1" connectionId="6" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4631,10 +5140,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1_2" connectionId="6" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1" connectionId="4" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1_1" connectionId="8" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1_2" connectionId="7" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="new 1_1" connectionId="3" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -4903,41 +5420,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I74" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I65" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M67" sqref="M67"/>
       <selection pane="topRight" activeCell="M67" sqref="M67"/>
       <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
       <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:37" ht="18">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5044,7 +5561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:37">
       <c r="B2" s="2">
         <v>96778.92</v>
       </c>
@@ -5067,55 +5584,55 @@
         <v>214634.81</v>
       </c>
       <c r="J2" s="1">
-        <f>B2*B2</f>
+        <f t="shared" ref="J2:J41" si="0">B2*B2</f>
         <v>9366159356.3663998</v>
       </c>
       <c r="K2" s="1">
-        <f>C2*$B$2</f>
+        <f t="shared" ref="K2:P2" si="1">C2*$B$2</f>
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <f>D2*$B$2</f>
+        <f t="shared" si="1"/>
         <v>96778.92</v>
       </c>
       <c r="M2" s="1">
-        <f>E2*$B$2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N2" s="1">
-        <f>F2*$B$2</f>
+        <f t="shared" si="1"/>
         <v>5370644547.5339994</v>
       </c>
       <c r="O2" s="1">
-        <f>G2*$B$2</f>
+        <f t="shared" si="1"/>
         <v>9973792580.1107998</v>
       </c>
       <c r="P2" s="1">
-        <f>H2*$B$2</f>
+        <f t="shared" si="1"/>
         <v>20772125106.2052</v>
       </c>
       <c r="Q2" s="1">
-        <f>$C$2*C2</f>
+        <f t="shared" ref="Q2:V2" si="2">$C$2*C2</f>
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <f>$C$2*D2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <f>$C$2*E2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <f>$C$2*F2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f>$C$2*G2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V2" s="1">
-        <f>$C$2*H2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W2" s="1">
@@ -5175,11 +5692,11 @@
         <v>22119724785.226902</v>
       </c>
       <c r="AK2" s="1">
-        <f>H2*H2</f>
+        <f t="shared" ref="AK2:AK41" si="3">H2*H2</f>
         <v>46068101663.736099</v>
       </c>
     </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:37">
       <c r="B3" s="2">
         <v>96479.51</v>
       </c>
@@ -5202,55 +5719,55 @@
         <v>205517.64</v>
       </c>
       <c r="J3" s="1">
-        <f>B3*B3</f>
+        <f t="shared" si="0"/>
         <v>9308295849.8400993</v>
       </c>
       <c r="K3" s="1">
-        <f>C3*$B$3</f>
+        <f t="shared" ref="K3:P3" si="4">C3*$B$3</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f>D3*$B$3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f>E3*$B$3</f>
+        <f t="shared" si="4"/>
         <v>96479.51</v>
       </c>
       <c r="N3" s="1">
-        <f>F3*$B$3</f>
+        <f t="shared" si="4"/>
         <v>4439410102.7301998</v>
       </c>
       <c r="O3" s="1">
-        <f>G3*$B$3</f>
+        <f t="shared" si="4"/>
         <v>8205335337.9544001</v>
       </c>
       <c r="P3" s="1">
-        <f>H3*$B$3</f>
+        <f t="shared" si="4"/>
         <v>19828241203.5564</v>
       </c>
       <c r="Q3" s="1">
-        <f>$C$3*C3</f>
+        <f t="shared" ref="Q3:V3" si="5">$C$3*C3</f>
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <f>$C$3*D3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <f>$C$3*E3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <f>$C$3*F3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U3" s="1">
-        <f>$C$3*G3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <f>$C$3*H3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W3" s="1">
@@ -5310,11 +5827,11 @@
         <v>17478749156.841602</v>
       </c>
       <c r="AK3" s="1">
-        <f>H3*H3</f>
+        <f t="shared" si="3"/>
         <v>42237500351.169609</v>
       </c>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:37">
       <c r="B4" s="2">
         <v>105733.54</v>
       </c>
@@ -5337,55 +5854,55 @@
         <v>134050.07</v>
       </c>
       <c r="J4" s="1">
-        <f>B4*B4</f>
+        <f t="shared" si="0"/>
         <v>11179581480.931599</v>
       </c>
       <c r="K4" s="1">
-        <f>C4*$B$4</f>
+        <f t="shared" ref="K4:P4" si="6">C4*$B$4</f>
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <f>D4*$B$4</f>
+        <f t="shared" si="6"/>
         <v>105733.54</v>
       </c>
       <c r="M4" s="1">
-        <f>E4*$B$4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f>F4*$B$4</f>
+        <f t="shared" si="6"/>
         <v>7964788089.299799</v>
       </c>
       <c r="O4" s="1">
-        <f>G4*$B$4</f>
+        <f t="shared" si="6"/>
         <v>15240007406.769199</v>
       </c>
       <c r="P4" s="1">
-        <f>H4*$B$4</f>
+        <f t="shared" si="6"/>
         <v>14173588438.347799</v>
       </c>
       <c r="Q4" s="1">
-        <f>C4*$C$4</f>
+        <f t="shared" ref="Q4:V4" si="7">C4*$C$4</f>
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <f>D4*$C$4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <f>E4*$C$4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <f>F4*$C$4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <f>G4*$C$4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <f>H4*$C$4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W4" s="1">
@@ -5445,11 +5962,11 @@
         <v>19321438208.518604</v>
       </c>
       <c r="AK4" s="1">
-        <f>H4*H4</f>
+        <f t="shared" si="3"/>
         <v>17969421267.004902</v>
       </c>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:37">
       <c r="B5" s="2">
         <v>96712.8</v>
       </c>
@@ -5472,55 +5989,55 @@
         <v>210797.67</v>
       </c>
       <c r="J5" s="1">
-        <f>B5*B5</f>
+        <f t="shared" si="0"/>
         <v>9353365683.8400002</v>
       </c>
       <c r="K5" s="1">
-        <f>C5*$B$5</f>
+        <f t="shared" ref="K5:P5" si="8">C5*$B$5</f>
         <v>96712.8</v>
       </c>
       <c r="L5" s="1">
-        <f>D5*$B$5</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f>E5*$B$5</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <f>F5*$B$5</f>
+        <f t="shared" si="8"/>
         <v>4489995222.6960001</v>
       </c>
       <c r="O5" s="1">
-        <f>G5*$B$5</f>
+        <f t="shared" si="8"/>
         <v>15251020546.176003</v>
       </c>
       <c r="P5" s="1">
-        <f>H5*$B$5</f>
+        <f t="shared" si="8"/>
         <v>20386832899.176003</v>
       </c>
       <c r="Q5" s="1">
-        <f>C5*$C$5</f>
+        <f t="shared" ref="Q5:V5" si="9">C5*$C$5</f>
         <v>1</v>
       </c>
       <c r="R5" s="1">
-        <f>D5*$C$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <f>E5*$C$5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <f>F5*$C$5</f>
+        <f t="shared" si="9"/>
         <v>46426.07</v>
       </c>
       <c r="U5" s="1">
-        <f>G5*$C$5</f>
+        <f t="shared" si="9"/>
         <v>157693.92000000001</v>
       </c>
       <c r="V5" s="1">
-        <f>H5*$C$5</f>
+        <f t="shared" si="9"/>
         <v>210797.67</v>
       </c>
       <c r="W5" s="1">
@@ -5580,11 +6097,11 @@
         <v>33241510909.166405</v>
       </c>
       <c r="AK5" s="1">
-        <f>H5*H5</f>
+        <f t="shared" si="3"/>
         <v>44435657677.428902</v>
       </c>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:37">
       <c r="B6" s="2">
         <v>124266.9</v>
       </c>
@@ -5607,55 +6124,55 @@
         <v>294919.57</v>
       </c>
       <c r="J6" s="1">
-        <f>B6*B6</f>
+        <f t="shared" si="0"/>
         <v>15442262435.609999</v>
       </c>
       <c r="K6" s="1">
-        <f>C6*$B$6</f>
+        <f t="shared" ref="K6:P6" si="10">C6*$B$6</f>
         <v>0</v>
       </c>
       <c r="L6" s="1">
-        <f>D6*$B$6</f>
+        <f t="shared" si="10"/>
         <v>124266.9</v>
       </c>
       <c r="M6" s="1">
-        <f>E6*$B$6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <f>F6*$B$6</f>
+        <f t="shared" si="10"/>
         <v>11401383690.803999</v>
       </c>
       <c r="O6" s="1">
-        <f>G6*$B$6</f>
+        <f t="shared" si="10"/>
         <v>14188271478.350998</v>
       </c>
       <c r="P6" s="1">
-        <f>H6*$B$6</f>
+        <f t="shared" si="10"/>
         <v>36648740713.233002</v>
       </c>
       <c r="Q6" s="1">
-        <f>C6*$C$6</f>
+        <f t="shared" ref="Q6:V6" si="11">C6*$C$6</f>
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <f>D6*$C$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <f>E6*$C$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <f>F6*$C$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <f>G6*$C$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <f>H6*$C$6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W6" s="1">
@@ -5715,11 +6232,11 @@
         <v>33672674891.2103</v>
       </c>
       <c r="AK6" s="1">
-        <f>H6*H6</f>
+        <f t="shared" si="3"/>
         <v>86977552768.984909</v>
       </c>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:37">
       <c r="B7" s="2">
         <v>155752.6</v>
       </c>
@@ -5742,55 +6259,55 @@
         <v>323876.68</v>
       </c>
       <c r="J7" s="1">
-        <f>B7*B7</f>
+        <f t="shared" si="0"/>
         <v>24258872406.760002</v>
       </c>
       <c r="K7" s="1">
-        <f>C7*$B$7</f>
+        <f t="shared" ref="K7:P7" si="12">C7*$B$7</f>
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <f>D7*$B$7</f>
+        <f t="shared" si="12"/>
         <v>155752.6</v>
       </c>
       <c r="M7" s="1">
-        <f>E7*$B$7</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*$B$7</f>
+        <f t="shared" si="12"/>
         <v>20294272522.638</v>
       </c>
       <c r="O7" s="1">
-        <f>G7*$B$7</f>
+        <f t="shared" si="12"/>
         <v>22666685223.156002</v>
       </c>
       <c r="P7" s="1">
-        <f>H7*$B$7</f>
+        <f t="shared" si="12"/>
         <v>50444634989.368004</v>
       </c>
       <c r="Q7" s="1">
-        <f>C7*$C$7</f>
+        <f t="shared" ref="Q7:V7" si="13">C7*$C$7</f>
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <f>D7*$C$7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <f>E7*$C$7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <f>F7*$C$7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <f>G7*$C$7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f>H7*$C$7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W7" s="1">
@@ -5850,11 +6367,11 @@
         <v>47133792673.000801</v>
       </c>
       <c r="AK7" s="1">
-        <f>H7*H7</f>
+        <f t="shared" si="3"/>
         <v>104896103847.8224</v>
       </c>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:37">
       <c r="B8" s="2">
         <v>132602.65</v>
       </c>
@@ -5877,55 +6394,55 @@
         <v>256512.92</v>
       </c>
       <c r="J8" s="1">
-        <f>B8*B8</f>
+        <f t="shared" si="0"/>
         <v>17583462787.022499</v>
       </c>
       <c r="K8" s="1">
-        <f>C8*$B$8</f>
+        <f t="shared" ref="K8:P8" si="14">C8*$B$8</f>
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f>D8*$B$8</f>
+        <f t="shared" si="14"/>
         <v>132602.65</v>
       </c>
       <c r="M8" s="1">
-        <f>E8*$B$8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <f>F8*$B$8</f>
+        <f t="shared" si="14"/>
         <v>15904791473.586</v>
       </c>
       <c r="O8" s="1">
-        <f>G8*$B$8</f>
+        <f t="shared" si="14"/>
         <v>20758602742.663002</v>
       </c>
       <c r="P8" s="1">
-        <f>H8*$B$8</f>
+        <f t="shared" si="14"/>
         <v>34014292951.237999</v>
       </c>
       <c r="Q8" s="1">
-        <f>C8*$C$8</f>
+        <f t="shared" ref="Q8:V8" si="15">C8*$C$8</f>
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <f>D8*$C$8</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <f>E8*$C$8</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <f>F8*$C$8</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <f>G8*$C$8</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f>H8*$C$8</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W8" s="1">
@@ -5985,11 +6502,11 @@
         <v>40156435822.666405</v>
       </c>
       <c r="AK8" s="1">
-        <f>H8*H8</f>
+        <f t="shared" si="3"/>
         <v>65798878126.926407</v>
       </c>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:37">
       <c r="B9" s="2">
         <v>64926.080000000002</v>
       </c>
@@ -6012,55 +6529,55 @@
         <v>1903.93</v>
       </c>
       <c r="J9" s="1">
-        <f>B9*B9</f>
+        <f t="shared" si="0"/>
         <v>4215395864.1664004</v>
       </c>
       <c r="K9" s="1">
-        <f>C9*$B$9</f>
+        <f t="shared" ref="K9:P9" si="16">C9*$B$9</f>
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <f>D9*$B$9</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f>E9*$B$9</f>
+        <f t="shared" si="16"/>
         <v>64926.080000000002</v>
       </c>
       <c r="N9" s="1">
-        <f>F9*$B$9</f>
+        <f t="shared" si="16"/>
         <v>64941012.998400003</v>
       </c>
       <c r="O9" s="1">
-        <f>G9*$B$9</f>
+        <f t="shared" si="16"/>
         <v>8060770207.2832003</v>
       </c>
       <c r="P9" s="1">
-        <f>H9*$B$9</f>
+        <f t="shared" si="16"/>
         <v>123614711.49440001</v>
       </c>
       <c r="Q9" s="1">
-        <f>C9*$C$9</f>
+        <f t="shared" ref="Q9:V9" si="17">C9*$C$9</f>
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f>D9*$C$9</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <f>E9*$C$9</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <f>F9*$C$9</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f>G9*$C$9</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f>H9*$C$9</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W9" s="1">
@@ -6120,11 +6637,11 @@
         <v>236378697.4472</v>
       </c>
       <c r="AK9" s="1">
-        <f>H9*H9</f>
+        <f t="shared" si="3"/>
         <v>3624949.4449000005</v>
       </c>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:37">
       <c r="B10" s="2">
         <v>35673.410000000003</v>
       </c>
@@ -6147,55 +6664,55 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f>B10*B10</f>
+        <f t="shared" si="0"/>
         <v>1272592181.0281003</v>
       </c>
       <c r="K10" s="1">
-        <f>C10*$B$10</f>
+        <f t="shared" ref="K10:P10" si="18">C10*$B$10</f>
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f>D10*$B$10</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f>E10*$B$10</f>
+        <f t="shared" si="18"/>
         <v>35673.410000000003</v>
       </c>
       <c r="N10" s="1">
-        <f>F10*$B$10</f>
+        <f t="shared" si="18"/>
         <v>19336771.890500002</v>
       </c>
       <c r="O10" s="1">
-        <f>G10*$B$10</f>
+        <f t="shared" si="18"/>
         <v>1845854604.6415002</v>
       </c>
       <c r="P10" s="1">
-        <f>H10*$B$10</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <f>C10*$C$10</f>
+        <f t="shared" ref="Q10:V10" si="19">C10*$C$10</f>
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <f>D10*$C$10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <f>E10*$C$10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <f>F10*$C$10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <f>G10*$C$10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <f>H10*$C$10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W10" s="1">
@@ -6255,11 +6772,11 @@
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <f>H10*H10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37">
       <c r="B11" s="2">
         <v>101004.64</v>
       </c>
@@ -6282,55 +6799,55 @@
         <v>107138.38</v>
       </c>
       <c r="J11" s="1">
-        <f>B11*B11</f>
+        <f t="shared" si="0"/>
         <v>10201937301.5296</v>
       </c>
       <c r="K11" s="1">
-        <f>C11*$B$11</f>
+        <f t="shared" ref="K11:P11" si="20">C11*$B$11</f>
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f>D11*$B$11</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <f>E11*$B$11</f>
+        <f t="shared" si="20"/>
         <v>101004.64</v>
       </c>
       <c r="N11" s="1">
-        <f>F11*$B$11</f>
+        <f t="shared" si="20"/>
         <v>6626457889.4271994</v>
       </c>
       <c r="O11" s="1">
-        <f>G11*$B$11</f>
+        <f t="shared" si="20"/>
         <v>15456948128.7584</v>
       </c>
       <c r="P11" s="1">
-        <f>H11*$B$11</f>
+        <f t="shared" si="20"/>
         <v>10821473502.0832</v>
       </c>
       <c r="Q11" s="1">
-        <f>C11*$C$11</f>
+        <f t="shared" ref="Q11:V11" si="21">C11*$C$11</f>
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <f>D11*$C$11</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <f>E11*$C$11</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <f>F11*$C$11</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <f>G11*$C$11</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f>H11*$C$11</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W11" s="1">
@@ -6390,11 +6907,11 @@
         <v>16395606996.462801</v>
       </c>
       <c r="AK11" s="1">
-        <f>H11*H11</f>
+        <f t="shared" si="3"/>
         <v>11478632469.024401</v>
       </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:37">
       <c r="B12" s="2">
         <v>129917.04</v>
       </c>
@@ -6417,55 +6934,55 @@
         <v>261776.23</v>
       </c>
       <c r="J12" s="1">
-        <f>B12*B12</f>
+        <f t="shared" si="0"/>
         <v>16878437282.361599</v>
       </c>
       <c r="K12" s="1">
-        <f>C12*$B$12</f>
+        <f t="shared" ref="K12:P12" si="22">C12*$B$12</f>
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <f>D12*$B$12</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f>E12*$B$12</f>
+        <f t="shared" si="22"/>
         <v>129917.04</v>
       </c>
       <c r="N12" s="1">
-        <f>F12*$B$12</f>
+        <f t="shared" si="22"/>
         <v>14878568421.3144</v>
       </c>
       <c r="O12" s="1">
-        <f>G12*$B$12</f>
+        <f t="shared" si="22"/>
         <v>15930016906.953598</v>
       </c>
       <c r="P12" s="1">
-        <f>H12*$B$12</f>
+        <f t="shared" si="22"/>
         <v>34009192943.959198</v>
       </c>
       <c r="Q12" s="1">
-        <f>C12*$C$12</f>
+        <f t="shared" ref="Q12:V12" si="23">C12*$C$12</f>
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <f>D12*$C$12</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f>E12*$C$12</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f>F12*$C$12</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <f>G12*$C$12</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f>H12*$C$12</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W12" s="1">
@@ -6525,11 +7042,11 @@
         <v>32098174109.7132</v>
       </c>
       <c r="AK12" s="1">
-        <f>H12*H12</f>
+        <f t="shared" si="3"/>
         <v>68526794593.012909</v>
       </c>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:37">
       <c r="B13" s="2">
         <v>99937.59</v>
       </c>
@@ -6552,55 +7069,55 @@
         <v>91131.24</v>
       </c>
       <c r="J13" s="1">
-        <f>B13*B13</f>
+        <f t="shared" si="0"/>
         <v>9987521895.0080986</v>
       </c>
       <c r="K13" s="1">
-        <f>C13*$B$13</f>
+        <f t="shared" ref="K13:P13" si="24">C13*$B$13</f>
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <f>D13*$B$13</f>
+        <f t="shared" si="24"/>
         <v>99937.59</v>
       </c>
       <c r="M13" s="1">
-        <f>E13*$B$13</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f>F13*$B$13</f>
+        <f t="shared" si="24"/>
         <v>6195578924.5032005</v>
       </c>
       <c r="O13" s="1">
-        <f>G13*$B$13</f>
+        <f t="shared" si="24"/>
         <v>11556910827.7152</v>
       </c>
       <c r="P13" s="1">
-        <f>H13*$B$13</f>
+        <f t="shared" si="24"/>
         <v>9107436499.3115997</v>
       </c>
       <c r="Q13" s="1">
-        <f>C13*$C$13</f>
+        <f t="shared" ref="Q13:V13" si="25">C13*$C$13</f>
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <f>D13*$C$13</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <f>E13*$C$13</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <f>F13*$C$13</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <f>G13*$C$13</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <f>H13*$C$13</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W13" s="1">
@@ -6660,11 +7177,11 @@
         <v>10538533241.5872</v>
       </c>
       <c r="AK13" s="1">
-        <f>H13*H13</f>
+        <f t="shared" si="3"/>
         <v>8304902903.9376011</v>
       </c>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:37">
       <c r="B14" s="2">
         <v>97427.839999999997</v>
       </c>
@@ -6687,55 +7204,55 @@
         <v>46085.25</v>
       </c>
       <c r="J14" s="1">
-        <f>B14*B14</f>
+        <f t="shared" si="0"/>
         <v>9492184007.0655994</v>
       </c>
       <c r="K14" s="1">
-        <f>C14*$B$14</f>
+        <f t="shared" ref="K14:P14" si="26">C14*$B$14</f>
         <v>97427.839999999997</v>
       </c>
       <c r="L14" s="1">
-        <f>D14*$B$14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f>E14*$B$14</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <f>F14*$B$14</f>
+        <f t="shared" si="26"/>
         <v>6177788266.6624002</v>
       </c>
       <c r="O14" s="1">
-        <f>G14*$B$14</f>
+        <f t="shared" si="26"/>
         <v>12589587487.9424</v>
       </c>
       <c r="P14" s="1">
-        <f>H14*$B$14</f>
+        <f t="shared" si="26"/>
         <v>4489986363.3599997</v>
       </c>
       <c r="Q14" s="1">
-        <f>C14*$C$14</f>
+        <f t="shared" ref="Q14:V14" si="27">C14*$C$14</f>
         <v>1</v>
       </c>
       <c r="R14" s="1">
-        <f>D14*$C$14</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <f>E14*$C$14</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <f>F14*$C$14</f>
+        <f t="shared" si="27"/>
         <v>63408.86</v>
       </c>
       <c r="U14" s="1">
-        <f>G14*$C$14</f>
+        <f t="shared" si="27"/>
         <v>129219.61</v>
       </c>
       <c r="V14" s="1">
-        <f>H14*$C$14</f>
+        <f t="shared" si="27"/>
         <v>46085.25</v>
       </c>
       <c r="W14" s="1">
@@ -6795,11 +7312,11 @@
         <v>5955118031.7524996</v>
       </c>
       <c r="AK14" s="1">
-        <f>H14*H14</f>
+        <f t="shared" si="3"/>
         <v>2123850267.5625</v>
       </c>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:37">
       <c r="B15" s="2">
         <v>126992.93</v>
       </c>
@@ -6822,55 +7339,55 @@
         <v>264346.06</v>
       </c>
       <c r="J15" s="1">
-        <f>B15*B15</f>
+        <f t="shared" si="0"/>
         <v>16127204269.984898</v>
       </c>
       <c r="K15" s="1">
-        <f>C15*$B$15</f>
+        <f t="shared" ref="K15:P15" si="28">C15*$B$15</f>
         <v>126992.93</v>
       </c>
       <c r="L15" s="1">
-        <f>D15*$B$15</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f>E15*$B$15</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <f>F15*$B$15</f>
+        <f t="shared" si="28"/>
         <v>9907113417.3122997</v>
       </c>
       <c r="O15" s="1">
-        <f>G15*$B$15</f>
+        <f t="shared" si="28"/>
         <v>15442029155.321499</v>
       </c>
       <c r="P15" s="1">
-        <f>H15*$B$15</f>
+        <f t="shared" si="28"/>
         <v>33570080693.355797</v>
       </c>
       <c r="Q15" s="1">
-        <f>C15*$C$15</f>
+        <f t="shared" ref="Q15:V15" si="29">C15*$C$15</f>
         <v>1</v>
       </c>
       <c r="R15" s="1">
-        <f>D15*$C$15</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <f>E15*$C$15</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <f>F15*$C$15</f>
+        <f t="shared" si="29"/>
         <v>78013.11</v>
       </c>
       <c r="U15" s="1">
-        <f>G15*$C$15</f>
+        <f t="shared" si="29"/>
         <v>121597.55</v>
       </c>
       <c r="V15" s="1">
-        <f>H15*$C$15</f>
+        <f t="shared" si="29"/>
         <v>264346.06</v>
       </c>
       <c r="W15" s="1">
@@ -6930,11 +7447,11 @@
         <v>32143833248.153</v>
       </c>
       <c r="AK15" s="1">
-        <f>H15*H15</f>
+        <f t="shared" si="3"/>
         <v>69878839437.523605</v>
       </c>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:37">
       <c r="B16" s="2">
         <v>71498.490000000005</v>
       </c>
@@ -6957,55 +7474,55 @@
         <v>148001.10999999999</v>
       </c>
       <c r="J16" s="1">
-        <f>B16*B16</f>
+        <f t="shared" si="0"/>
         <v>5112034072.2801008</v>
       </c>
       <c r="K16" s="1">
-        <f>C16*$B$16</f>
+        <f t="shared" ref="K16:P16" si="30">C16*$B$16</f>
         <v>71498.490000000005</v>
       </c>
       <c r="L16" s="1">
-        <f>D16*$B$16</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <f>E16*$B$16</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <f>F16*$B$16</f>
+        <f t="shared" si="30"/>
         <v>1690290797.1957002</v>
       </c>
       <c r="O16" s="1">
-        <f>G16*$B$16</f>
+        <f t="shared" si="30"/>
         <v>6877413298.6587009</v>
       </c>
       <c r="P16" s="1">
-        <f>H16*$B$16</f>
+        <f t="shared" si="30"/>
         <v>10581855883.3239</v>
       </c>
       <c r="Q16" s="1">
-        <f>C16*$C$16</f>
+        <f t="shared" ref="Q16:V16" si="31">C16*$C$16</f>
         <v>1</v>
       </c>
       <c r="R16" s="1">
-        <f>D16*$C$16</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <f>E16*$C$16</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <f>F16*$C$16</f>
+        <f t="shared" si="31"/>
         <v>23640.93</v>
       </c>
       <c r="U16" s="1">
-        <f>G16*$C$16</f>
+        <f t="shared" si="31"/>
         <v>96189.63</v>
       </c>
       <c r="V16" s="1">
-        <f>H16*$C$16</f>
+        <f t="shared" si="31"/>
         <v>148001.10999999999</v>
       </c>
       <c r="W16" s="1">
@@ -7065,11 +7582,11 @@
         <v>14236172010.4893</v>
       </c>
       <c r="AK16" s="1">
-        <f>H16*H16</f>
+        <f t="shared" si="3"/>
         <v>21904328561.232098</v>
       </c>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:37">
       <c r="B17" s="2">
         <v>118474.03</v>
       </c>
@@ -7092,55 +7609,55 @@
         <v>298664.46999999997</v>
       </c>
       <c r="J17" s="1">
-        <f>B17*B17</f>
+        <f t="shared" si="0"/>
         <v>14036095784.440899</v>
       </c>
       <c r="K17" s="1">
-        <f>C17*$B$17</f>
+        <f t="shared" ref="K17:P17" si="32">C17*$B$17</f>
         <v>118474.03</v>
       </c>
       <c r="L17" s="1">
-        <f>D17*$B$17</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <f>E17*$B$17</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <f>F17*$B$17</f>
+        <f t="shared" si="32"/>
         <v>9034102097.2558002</v>
       </c>
       <c r="O17" s="1">
-        <f>G17*$B$17</f>
+        <f t="shared" si="32"/>
         <v>13490317916.219</v>
       </c>
       <c r="P17" s="1">
-        <f>H17*$B$17</f>
+        <f t="shared" si="32"/>
         <v>35383983378.714096</v>
       </c>
       <c r="Q17" s="1">
-        <f>C17*$C$17</f>
+        <f t="shared" ref="Q17:V17" si="33">C17*$C$17</f>
         <v>1</v>
       </c>
       <c r="R17" s="1">
-        <f>D17*$C$17</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <f>E17*$C$17</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <f>F17*$C$17</f>
+        <f t="shared" si="33"/>
         <v>76253.86</v>
       </c>
       <c r="U17" s="1">
-        <f>G17*$C$17</f>
+        <f t="shared" si="33"/>
         <v>113867.3</v>
       </c>
       <c r="V17" s="1">
-        <f>H17*$C$17</f>
+        <f t="shared" si="33"/>
         <v>298664.46999999997</v>
       </c>
       <c r="W17" s="1">
@@ -7200,11 +7717,11 @@
         <v>34008116804.830997</v>
       </c>
       <c r="AK17" s="1">
-        <f>H17*H17</f>
+        <f t="shared" si="3"/>
         <v>89200465640.38089</v>
       </c>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:37">
       <c r="B18" s="2">
         <v>69758.98</v>
       </c>
@@ -7227,55 +7744,55 @@
         <v>35534.17</v>
       </c>
       <c r="J18" s="1">
-        <f>B18*B18</f>
+        <f t="shared" si="0"/>
         <v>4866315290.640399</v>
       </c>
       <c r="K18" s="1">
-        <f>C18*$B$18</f>
+        <f t="shared" ref="K18:P18" si="34">C18*$B$18</f>
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <f>D18*$B$18</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f>E18*$B$18</f>
+        <f t="shared" si="34"/>
         <v>69758.98</v>
       </c>
       <c r="N18" s="1">
-        <f>F18*$B$18</f>
+        <f t="shared" si="34"/>
         <v>1081663908.9554</v>
       </c>
       <c r="O18" s="1">
-        <f>G18*$B$18</f>
+        <f t="shared" si="34"/>
         <v>8886059318.0539989</v>
       </c>
       <c r="P18" s="1">
-        <f>H18*$B$18</f>
+        <f t="shared" si="34"/>
         <v>2478827454.3465996</v>
       </c>
       <c r="Q18" s="1">
-        <f>C18*$C$18</f>
+        <f t="shared" ref="Q18:V18" si="35">C18*$C$18</f>
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <f>D18*$C$18</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <f>E18*$C$18</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <f>F18*$C$18</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <f>G18*$C$18</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <f>H18*$C$18</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W18" s="1">
@@ -7335,11 +7852,11 @@
         <v>4526424303.191</v>
       </c>
       <c r="AK18" s="1">
-        <f>H18*H18</f>
+        <f t="shared" si="3"/>
         <v>1262677237.5888999</v>
       </c>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:37">
       <c r="B19" s="2">
         <v>152211.76999999999</v>
       </c>
@@ -7362,55 +7879,55 @@
         <v>311613.28999999998</v>
       </c>
       <c r="J19" s="1">
-        <f>B19*B19</f>
+        <f t="shared" si="0"/>
         <v>23168422926.532898</v>
       </c>
       <c r="K19" s="1">
-        <f>C19*$B$19</f>
+        <f t="shared" ref="K19:P19" si="36">C19*$B$19</f>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f>D19*$B$19</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f>E19*$B$19</f>
+        <f t="shared" si="36"/>
         <v>152211.76999999999</v>
       </c>
       <c r="N19" s="1">
-        <f>F19*$B$19</f>
+        <f t="shared" si="36"/>
         <v>18347990329.4604</v>
       </c>
       <c r="O19" s="1">
-        <f>G19*$B$19</f>
+        <f t="shared" si="36"/>
         <v>22636774612.0415</v>
       </c>
       <c r="P19" s="1">
-        <f>H19*$B$19</f>
+        <f t="shared" si="36"/>
         <v>47431210426.423294</v>
       </c>
       <c r="Q19" s="1">
-        <f>C19*$C$19</f>
+        <f t="shared" ref="Q19:V19" si="37">C19*$C$19</f>
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f>D19*$C$19</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f>E19*$C$19</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <f>F19*$C$19</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <f>G19*$C$19</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <f>H19*$C$19</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W19" s="1">
@@ -7470,11 +7987,11 @@
         <v>46342801294.845497</v>
       </c>
       <c r="AK19" s="1">
-        <f>H19*H19</f>
+        <f t="shared" si="3"/>
         <v>97102842504.624084</v>
       </c>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:37">
       <c r="B20" s="2">
         <v>134307.35</v>
       </c>
@@ -7497,55 +8014,55 @@
         <v>252664.93</v>
       </c>
       <c r="J20" s="1">
-        <f>B20*B20</f>
+        <f t="shared" si="0"/>
         <v>18038464264.022503</v>
       </c>
       <c r="K20" s="1">
-        <f>C20*$B$20</f>
+        <f t="shared" ref="K20:P20" si="38">C20*$B$20</f>
         <v>134307.35</v>
       </c>
       <c r="L20" s="1">
-        <f>D20*$B$20</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f>E20*$B$20</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <f>F20*$B$20</f>
+        <f t="shared" si="38"/>
         <v>12355254121.0665</v>
       </c>
       <c r="O20" s="1">
-        <f>G20*$B$20</f>
+        <f t="shared" si="38"/>
         <v>18197983789.764503</v>
       </c>
       <c r="P20" s="1">
-        <f>H20*$B$20</f>
+        <f t="shared" si="38"/>
         <v>33934757186.2355</v>
       </c>
       <c r="Q20" s="1">
-        <f>C20*$C$20</f>
+        <f t="shared" ref="Q20:V20" si="39">C20*$C$20</f>
         <v>1</v>
       </c>
       <c r="R20" s="1">
-        <f>D20*$C$20</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <f>E20*$C$20</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <f>F20*$C$20</f>
+        <f t="shared" si="39"/>
         <v>91992.39</v>
       </c>
       <c r="U20" s="1">
-        <f>G20*$C$20</f>
+        <f t="shared" si="39"/>
         <v>135495.07</v>
       </c>
       <c r="V20" s="1">
-        <f>H20*$C$20</f>
+        <f t="shared" si="39"/>
         <v>252664.93</v>
       </c>
       <c r="W20" s="1">
@@ -7605,11 +8122,11 @@
         <v>34234852376.8951</v>
       </c>
       <c r="AK20" s="1">
-        <f>H20*H20</f>
+        <f t="shared" si="3"/>
         <v>63839566851.9049</v>
       </c>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:37">
       <c r="B21" s="2">
         <v>107404.34</v>
       </c>
@@ -7632,55 +8149,55 @@
         <v>137962.62</v>
       </c>
       <c r="J21" s="1">
-        <f>B21*B21</f>
+        <f t="shared" si="0"/>
         <v>11535692250.8356</v>
       </c>
       <c r="K21" s="1">
-        <f>C21*$B$21</f>
+        <f t="shared" ref="K21:P21" si="40">C21*$B$21</f>
         <v>107404.34</v>
       </c>
       <c r="L21" s="1">
-        <f>D21*$B$21</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f>E21*$B$21</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <f>F21*$B$21</f>
+        <f t="shared" si="40"/>
         <v>6945270498.8414001</v>
       </c>
       <c r="O21" s="1">
-        <f>G21*$B$21</f>
+        <f t="shared" si="40"/>
         <v>14988615044.714399</v>
       </c>
       <c r="P21" s="1">
-        <f>H21*$B$21</f>
+        <f t="shared" si="40"/>
         <v>14817784145.7708</v>
       </c>
       <c r="Q21" s="1">
-        <f>C21*$C$21</f>
+        <f t="shared" ref="Q21:V21" si="41">C21*$C$21</f>
         <v>1</v>
       </c>
       <c r="R21" s="1">
-        <f>D21*$C$21</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <f>E21*$C$21</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <f>F21*$C$21</f>
+        <f t="shared" si="41"/>
         <v>64664.71</v>
       </c>
       <c r="U21" s="1">
-        <f>G21*$C$21</f>
+        <f t="shared" si="41"/>
         <v>139553.16</v>
       </c>
       <c r="V21" s="1">
-        <f>H21*$C$21</f>
+        <f t="shared" si="41"/>
         <v>137962.62</v>
       </c>
       <c r="W21" s="1">
@@ -7740,11 +8257,11 @@
         <v>19253119582.8792</v>
       </c>
       <c r="AK21" s="1">
-        <f>H21*H21</f>
+        <f t="shared" si="3"/>
         <v>19033684517.2644</v>
       </c>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:37">
       <c r="B22" s="2">
         <v>156991.12</v>
       </c>
@@ -7767,55 +8284,55 @@
         <v>362861.36</v>
       </c>
       <c r="J22" s="1">
-        <f>B22*B22</f>
+        <f t="shared" si="0"/>
         <v>24646211758.854397</v>
       </c>
       <c r="K22" s="1">
-        <f>C22*$B$22</f>
+        <f t="shared" ref="K22:P22" si="42">C22*$B$22</f>
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f>D22*$B$22</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f>E22*$B$22</f>
+        <f t="shared" si="42"/>
         <v>156991.12</v>
       </c>
       <c r="N22" s="1">
-        <f>F22*$B$22</f>
+        <f t="shared" si="42"/>
         <v>20703502233.127998</v>
       </c>
       <c r="O22" s="1">
-        <f>G22*$B$22</f>
+        <f t="shared" si="42"/>
         <v>15670023115.3752</v>
       </c>
       <c r="P22" s="1">
-        <f>H22*$B$22</f>
+        <f t="shared" si="42"/>
         <v>56966011311.123199</v>
       </c>
       <c r="Q22" s="1">
-        <f>C22*$C$22</f>
+        <f t="shared" ref="Q22:V22" si="43">C22*$C$22</f>
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f>D22*$C$22</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <f>E22*$C$22</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <f>F22*$C$22</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <f>G22*$C$22</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f>H22*$C$22</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -7875,11 +8392,11 @@
         <v>36218901418.605598</v>
       </c>
       <c r="AK22" s="1">
-        <f>H22*H22</f>
+        <f t="shared" si="3"/>
         <v>131668366581.04959</v>
       </c>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:37">
       <c r="B23" s="2">
         <v>125370.37</v>
       </c>
@@ -7902,55 +8419,55 @@
         <v>282574.31</v>
       </c>
       <c r="J23" s="1">
-        <f>B23*B23</f>
+        <f t="shared" si="0"/>
         <v>15717729673.936899</v>
       </c>
       <c r="K23" s="1">
-        <f>C23*$B$23</f>
+        <f t="shared" ref="K23:P23" si="44">C23*$B$23</f>
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <f>D23*$B$23</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <f>E23*$B$23</f>
+        <f t="shared" si="44"/>
         <v>125370.37</v>
       </c>
       <c r="N23" s="1">
-        <f>F23*$B$23</f>
+        <f t="shared" si="44"/>
         <v>11867203172.349199</v>
       </c>
       <c r="O23" s="1">
-        <f>G23*$B$23</f>
+        <f t="shared" si="44"/>
         <v>18188429883.304596</v>
       </c>
       <c r="P23" s="1">
-        <f>H23*$B$23</f>
+        <f t="shared" si="44"/>
         <v>35426445797.194702</v>
       </c>
       <c r="Q23" s="1">
-        <f>C23*$C$23</f>
+        <f t="shared" ref="Q23:V23" si="45">C23*$C$23</f>
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f>D23*$C$23</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <f>E23*$C$23</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <f>F23*$C$23</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <f>G23*$C$23</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <f>H23*$C$23</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W23" s="1">
@@ -8010,11 +8527,11 @@
         <v>40995197064.969795</v>
       </c>
       <c r="AK23" s="1">
-        <f>H23*H23</f>
+        <f t="shared" si="3"/>
         <v>79848240671.976105</v>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:37">
       <c r="B24" s="2">
         <v>78239.91</v>
       </c>
@@ -8037,55 +8554,55 @@
         <v>172795.67</v>
       </c>
       <c r="J24" s="1">
-        <f>B24*B24</f>
+        <f t="shared" si="0"/>
         <v>6121483516.8081007</v>
       </c>
       <c r="K24" s="1">
-        <f>C24*$B$24</f>
+        <f t="shared" ref="K24:P24" si="46">C24*$B$24</f>
         <v>78239.91</v>
       </c>
       <c r="L24" s="1">
-        <f>D24*$B$24</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <f>E24*$B$24</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N24" s="1">
-        <f>F24*$B$24</f>
+        <f t="shared" si="46"/>
         <v>2249736191.3103004</v>
       </c>
       <c r="O24" s="1">
-        <f>G24*$B$24</f>
+        <f t="shared" si="46"/>
         <v>9275032282.8555012</v>
       </c>
       <c r="P24" s="1">
-        <f>H24*$B$24</f>
+        <f t="shared" si="46"/>
         <v>13519517669.189701</v>
       </c>
       <c r="Q24" s="1">
-        <f>C24*$C$24</f>
+        <f t="shared" ref="Q24:V24" si="47">C24*$C$24</f>
         <v>1</v>
       </c>
       <c r="R24" s="1">
-        <f>D24*$C$24</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <f>E24*$C$24</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <f>F24*$C$24</f>
+        <f t="shared" si="47"/>
         <v>28754.33</v>
       </c>
       <c r="U24" s="1">
-        <f>G24*$C$24</f>
+        <f t="shared" si="47"/>
         <v>118546.05</v>
       </c>
       <c r="V24" s="1">
-        <f>H24*$C$24</f>
+        <f t="shared" si="47"/>
         <v>172795.67</v>
       </c>
       <c r="W24" s="1">
@@ -8145,11 +8662,11 @@
         <v>20484244135.6035</v>
       </c>
       <c r="AK24" s="1">
-        <f>H24*H24</f>
+        <f t="shared" si="3"/>
         <v>29858343570.748905</v>
       </c>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:37">
       <c r="B25" s="2">
         <v>14681.4</v>
       </c>
@@ -8172,55 +8689,55 @@
         <v>45173.06</v>
       </c>
       <c r="J25" s="1">
-        <f>B25*B25</f>
+        <f t="shared" si="0"/>
         <v>215543505.95999998</v>
       </c>
       <c r="K25" s="1">
-        <f>C25*$B$25</f>
+        <f t="shared" ref="K25:P25" si="48">C25*$B$25</f>
         <v>14681.4</v>
       </c>
       <c r="L25" s="1">
-        <f>D25*$B$25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f>E25*$B$25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <f>F25*$B$25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O25" s="1">
-        <f>G25*$B$25</f>
+        <f t="shared" si="48"/>
         <v>1717485961.3199999</v>
       </c>
       <c r="P25" s="1">
-        <f>H25*$B$25</f>
+        <f t="shared" si="48"/>
         <v>663203763.08399999</v>
       </c>
       <c r="Q25" s="1">
-        <f>C25*$C$25</f>
+        <f t="shared" ref="Q25:V25" si="49">C25*$C$25</f>
         <v>1</v>
       </c>
       <c r="R25" s="1">
-        <f>D25*$C$25</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <f>E25*$C$25</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <f>F25*$C$25</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U25" s="1">
-        <f>G25*$C$25</f>
+        <f t="shared" si="49"/>
         <v>116983.8</v>
       </c>
       <c r="V25" s="1">
-        <f>H25*$C$25</f>
+        <f t="shared" si="49"/>
         <v>45173.06</v>
       </c>
       <c r="W25" s="1">
@@ -8280,11 +8797,11 @@
         <v>5284516216.4279995</v>
       </c>
       <c r="AK25" s="1">
-        <f>H25*H25</f>
+        <f t="shared" si="3"/>
         <v>2040605349.7635999</v>
       </c>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:37">
       <c r="B26" s="2">
         <v>191792.06</v>
       </c>
@@ -8307,55 +8824,55 @@
         <v>443898.53</v>
       </c>
       <c r="J26" s="1">
-        <f>B26*B26</f>
+        <f t="shared" si="0"/>
         <v>36784194279.043602</v>
       </c>
       <c r="K26" s="1">
-        <f>C26*$B$26</f>
+        <f t="shared" ref="K26:P26" si="50">C26*$B$26</f>
         <v>191792.06</v>
       </c>
       <c r="L26" s="1">
-        <f>D26*$B$26</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <f>E26*$B$26</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f>F26*$B$26</f>
+        <f t="shared" si="50"/>
         <v>31184947834.262001</v>
       </c>
       <c r="O26" s="1">
-        <f>G26*$B$26</f>
+        <f t="shared" si="50"/>
         <v>29033019823.935398</v>
       </c>
       <c r="P26" s="1">
-        <f>H26*$B$26</f>
+        <f t="shared" si="50"/>
         <v>85136213499.671799</v>
       </c>
       <c r="Q26" s="1">
-        <f>C26*$C$26</f>
+        <f t="shared" ref="Q26:V26" si="51">C26*$C$26</f>
         <v>1</v>
       </c>
       <c r="R26" s="1">
-        <f>D26*$C$26</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f>E26*$C$26</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <f>F26*$C$26</f>
+        <f t="shared" si="51"/>
         <v>162597.70000000001</v>
       </c>
       <c r="U26" s="1">
-        <f>G26*$C$26</f>
+        <f t="shared" si="51"/>
         <v>151377.59</v>
       </c>
       <c r="V26" s="1">
-        <f>H26*$C$26</f>
+        <f t="shared" si="51"/>
         <v>443898.53</v>
       </c>
       <c r="W26" s="1">
@@ -8415,11 +8932,11 @@
         <v>67196289675.942703</v>
       </c>
       <c r="AK26" s="1">
-        <f>H26*H26</f>
+        <f t="shared" si="3"/>
         <v>197045904936.16092</v>
       </c>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:37">
       <c r="B27" s="2">
         <v>141585.51999999999</v>
       </c>
@@ -8442,55 +8959,55 @@
         <v>249839.44</v>
       </c>
       <c r="J27" s="1">
-        <f>B27*B27</f>
+        <f t="shared" si="0"/>
         <v>20046459473.670399</v>
       </c>
       <c r="K27" s="1">
-        <f>C27*$B$27</f>
+        <f t="shared" ref="K27:P27" si="52">C27*$B$27</f>
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <f>D27*$B$27</f>
+        <f t="shared" si="52"/>
         <v>141585.51999999999</v>
       </c>
       <c r="M27" s="1">
-        <f>E27*$B$27</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <f>F27*$B$27</f>
+        <f t="shared" si="52"/>
         <v>13289747852.9</v>
       </c>
       <c r="O27" s="1">
-        <f>G27*$B$27</f>
+        <f t="shared" si="52"/>
         <v>18026722208.897598</v>
       </c>
       <c r="P27" s="1">
-        <f>H27*$B$27</f>
+        <f t="shared" si="52"/>
         <v>35373647028.908798</v>
       </c>
       <c r="Q27" s="1">
-        <f>C27*$C$27</f>
+        <f t="shared" ref="Q27:V27" si="53">C27*$C$27</f>
         <v>0</v>
       </c>
       <c r="R27" s="1">
-        <f>D27*$C$27</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <f>E27*$C$27</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <f>F27*$C$27</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <f>G27*$C$27</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <f>H27*$C$27</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="W27" s="1">
@@ -8550,11 +9067,11 @@
         <v>31809652439.787201</v>
       </c>
       <c r="AK27" s="1">
-        <f>H27*H27</f>
+        <f t="shared" si="3"/>
         <v>62419745779.513603</v>
       </c>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:37">
       <c r="B28" s="2">
         <v>89949.14</v>
       </c>
@@ -8577,55 +9094,55 @@
         <v>197029.42</v>
       </c>
       <c r="J28" s="1">
-        <f>B28*B28</f>
+        <f t="shared" si="0"/>
         <v>8090847786.7396002</v>
       </c>
       <c r="K28" s="1">
-        <f>C28*$B$28</f>
+        <f t="shared" ref="K28:P28" si="54">C28*$B$28</f>
         <v>89949.14</v>
       </c>
       <c r="L28" s="1">
-        <f>D28*$B$28</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <f>E28*$B$28</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <f>F28*$B$28</f>
+        <f t="shared" si="54"/>
         <v>3964054102.3429999</v>
       </c>
       <c r="O28" s="1">
-        <f>G28*$B$28</f>
+        <f t="shared" si="54"/>
         <v>4612874339.4995995</v>
       </c>
       <c r="P28" s="1">
-        <f>H28*$B$28</f>
+        <f t="shared" si="54"/>
         <v>17722626883.698799</v>
       </c>
       <c r="Q28" s="1">
-        <f>C28*$C$28</f>
+        <f t="shared" ref="Q28:V28" si="55">C28*$C$28</f>
         <v>1</v>
       </c>
       <c r="R28" s="1">
-        <f>D28*$C$28</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <f>E28*$C$28</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <f>F28*$C$28</f>
+        <f t="shared" si="55"/>
         <v>44069.95</v>
       </c>
       <c r="U28" s="1">
-        <f>G28*$C$28</f>
+        <f t="shared" si="55"/>
         <v>51283.14</v>
       </c>
       <c r="V28" s="1">
-        <f>H28*$C$28</f>
+        <f t="shared" si="55"/>
         <v>197029.42</v>
       </c>
       <c r="W28" s="1">
@@ -8685,11 +9202,11 @@
         <v>10104287329.9788</v>
       </c>
       <c r="AK28" s="1">
-        <f>H28*H28</f>
+        <f t="shared" si="3"/>
         <v>38820592345.536407</v>
       </c>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:37">
       <c r="B29" s="2">
         <v>108552.04</v>
       </c>
@@ -8712,55 +9229,55 @@
         <v>140574.81</v>
       </c>
       <c r="J29" s="1">
-        <f>B29*B29</f>
+        <f t="shared" si="0"/>
         <v>11783545388.161598</v>
       </c>
       <c r="K29" s="1">
-        <f>C29*$B$29</f>
+        <f t="shared" ref="K29:P29" si="56">C29*$B$29</f>
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f>D29*$B$29</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <f>E29*$B$29</f>
+        <f t="shared" si="56"/>
         <v>108552.04</v>
       </c>
       <c r="N29" s="1">
-        <f>F29*$B$29</f>
+        <f t="shared" si="56"/>
         <v>8363284455.2803993</v>
       </c>
       <c r="O29" s="1">
-        <f>G29*$B$29</f>
+        <f t="shared" si="56"/>
         <v>10777191990.933599</v>
       </c>
       <c r="P29" s="1">
-        <f>H29*$B$29</f>
+        <f t="shared" si="56"/>
         <v>15259682398.112398</v>
       </c>
       <c r="Q29" s="1">
-        <f>C29*$C$29</f>
+        <f t="shared" ref="Q29:V29" si="57">C29*$C$29</f>
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <f>D29*$C$29</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <f>E29*$C$29</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <f>F29*$C$29</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="U29" s="1">
-        <f>G29*$C$29</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <f>H29*$C$29</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W29" s="1">
@@ -8820,11 +9337,11 @@
         <v>13956455507.045399</v>
       </c>
       <c r="AK29" s="1">
-        <f>H29*H29</f>
+        <f t="shared" si="3"/>
         <v>19761277206.536098</v>
       </c>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:37">
       <c r="B30" s="2">
         <v>156122.51</v>
       </c>
@@ -8847,55 +9364,55 @@
         <v>127716.82</v>
       </c>
       <c r="J30" s="1">
-        <f>B30*B30</f>
+        <f t="shared" si="0"/>
         <v>24374238128.700104</v>
       </c>
       <c r="K30" s="1">
-        <f>C30*$B$30</f>
+        <f t="shared" ref="K30:P30" si="58">C30*$B$30</f>
         <v>156122.51</v>
       </c>
       <c r="L30" s="1">
-        <f>D30*$B$30</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <f>E30*$B$30</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <f>F30*$B$30</f>
+        <f t="shared" si="58"/>
         <v>21016503500.004601</v>
       </c>
       <c r="O30" s="1">
-        <f>G30*$B$30</f>
+        <f t="shared" si="58"/>
         <v>22981057053.563702</v>
       </c>
       <c r="P30" s="1">
-        <f>H30*$B$30</f>
+        <f t="shared" si="58"/>
         <v>19939470507.618202</v>
       </c>
       <c r="Q30" s="1">
-        <f>C30*$C$30</f>
+        <f t="shared" ref="Q30:V30" si="59">C30*$C$30</f>
         <v>1</v>
       </c>
       <c r="R30" s="1">
-        <f>D30*$C$30</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <f>E30*$C$30</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <f>F30*$C$30</f>
+        <f t="shared" si="59"/>
         <v>134615.46</v>
       </c>
       <c r="U30" s="1">
-        <f>G30*$C$30</f>
+        <f t="shared" si="59"/>
         <v>147198.87</v>
       </c>
       <c r="V30" s="1">
-        <f>H30*$C$30</f>
+        <f t="shared" si="59"/>
         <v>127716.82</v>
       </c>
       <c r="W30" s="1">
@@ -8955,11 +9472,11 @@
         <v>18799771583.993401</v>
       </c>
       <c r="AK30" s="1">
-        <f>H30*H30</f>
+        <f t="shared" si="3"/>
         <v>16311586110.912401</v>
       </c>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:37">
       <c r="B31" s="2">
         <v>108733.99</v>
       </c>
@@ -8982,55 +9499,55 @@
         <v>304768.73</v>
       </c>
       <c r="J31" s="1">
-        <f>B31*B31</f>
+        <f t="shared" si="0"/>
         <v>11823080581.320101</v>
       </c>
       <c r="K31" s="1">
-        <f>C31*$B$31</f>
+        <f t="shared" ref="K31:P31" si="60">C31*$B$31</f>
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f>D31*$B$31</f>
+        <f t="shared" si="60"/>
         <v>108733.99</v>
       </c>
       <c r="M31" s="1">
-        <f>E31*$B$31</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <f>F31*$B$31</f>
+        <f t="shared" si="60"/>
         <v>7343081441.6947002</v>
       </c>
       <c r="O31" s="1">
-        <f>G31*$B$31</f>
+        <f t="shared" si="60"/>
         <v>11498731438.509701</v>
       </c>
       <c r="P31" s="1">
-        <f>H31*$B$31</f>
+        <f t="shared" si="60"/>
         <v>33138720040.132698</v>
       </c>
       <c r="Q31" s="1">
-        <f>C31*$C$31</f>
+        <f t="shared" ref="Q31:V31" si="61">C31*$C$31</f>
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <f>D31*$C$31</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <f>E31*$C$31</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <f>F31*$C$31</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="U31" s="1">
-        <f>G31*$C$31</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <f>H31*$C$31</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W31" s="1">
@@ -9090,11 +9607,11 @@
         <v>32229607109.291897</v>
       </c>
       <c r="AK31" s="1">
-        <f>H31*H31</f>
+        <f t="shared" si="3"/>
         <v>92883978785.812881</v>
       </c>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:37">
       <c r="B32" s="2">
         <v>90708.19</v>
       </c>
@@ -9117,55 +9634,55 @@
         <v>201126.82</v>
       </c>
       <c r="J32" s="1">
-        <f>B32*B32</f>
+        <f t="shared" si="0"/>
         <v>8227975733.0761003</v>
       </c>
       <c r="K32" s="1">
-        <f>C32*$B$32</f>
+        <f t="shared" ref="K32:P32" si="62">C32*$B$32</f>
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <f>D32*$B$32</f>
+        <f t="shared" si="62"/>
         <v>90708.19</v>
       </c>
       <c r="M32" s="1">
-        <f>E32*$B$32</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N32" s="1">
-        <f>F32*$B$32</f>
+        <f t="shared" si="62"/>
         <v>2600037788.1943998</v>
       </c>
       <c r="O32" s="1">
-        <f>G32*$B$32</f>
+        <f t="shared" si="62"/>
         <v>11525038837.359901</v>
       </c>
       <c r="P32" s="1">
-        <f>H32*$B$32</f>
+        <f t="shared" si="62"/>
         <v>18243849802.6558</v>
       </c>
       <c r="Q32" s="1">
-        <f>C32*$C$32</f>
+        <f t="shared" ref="Q32:V32" si="63">C32*$C$32</f>
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <f>D32*$C$32</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <f>E32*$C$32</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T32" s="1">
-        <f>F32*$C$32</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="U32" s="1">
-        <f>G32*$C$32</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <f>H32*$C$32</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W32" s="1">
@@ -9225,11 +9742,11 @@
         <v>25554411478.5522</v>
       </c>
       <c r="AK32" s="1">
-        <f>H32*H32</f>
+        <f t="shared" si="3"/>
         <v>40451997723.312401</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:37">
       <c r="B33" s="2">
         <v>111313.02</v>
       </c>
@@ -9252,55 +9769,55 @@
         <v>299737.28999999998</v>
       </c>
       <c r="J33" s="1">
-        <f>B33*B33</f>
+        <f t="shared" si="0"/>
         <v>12390588421.520401</v>
       </c>
       <c r="K33" s="1">
-        <f>C33*$B$33</f>
+        <f t="shared" ref="K33:P33" si="64">C33*$B$33</f>
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <f>D33*$B$33</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M33" s="1">
-        <f>E33*$B$33</f>
+        <f t="shared" si="64"/>
         <v>111313.02</v>
       </c>
       <c r="N33" s="1">
-        <f>F33*$B$33</f>
+        <f t="shared" si="64"/>
         <v>8725768641.8994007</v>
       </c>
       <c r="O33" s="1">
-        <f>G33*$B$33</f>
+        <f t="shared" si="64"/>
         <v>17116984889.058599</v>
       </c>
       <c r="P33" s="1">
-        <f>H33*$B$33</f>
+        <f t="shared" si="64"/>
         <v>33364662956.5158</v>
       </c>
       <c r="Q33" s="1">
-        <f>C33*$C$33</f>
+        <f t="shared" ref="Q33:V33" si="65">C33*$C$33</f>
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <f>D33*$C$33</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <f>E33*$C$33</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="T33" s="1">
-        <f>F33*$C$33</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="U33" s="1">
-        <f>G33*$C$33</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <f>H33*$C$33</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W33" s="1">
@@ -9360,11 +9877,11 @@
         <v>46091631182.204697</v>
       </c>
       <c r="AK33" s="1">
-        <f>H33*H33</f>
+        <f t="shared" si="3"/>
         <v>89842443016.544083</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:37">
       <c r="B34" s="2">
         <v>122776.86</v>
       </c>
@@ -9387,55 +9904,55 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f>B34*B34</f>
+        <f t="shared" si="0"/>
         <v>15074157351.4596</v>
       </c>
       <c r="K34" s="1">
-        <f>C34*$B$34</f>
+        <f t="shared" ref="K34:P34" si="66">C34*$B$34</f>
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <f>D34*$B$34</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <f>E34*$B$34</f>
+        <f t="shared" si="66"/>
         <v>122776.86</v>
       </c>
       <c r="N34" s="1">
-        <f>F34*$B$34</f>
+        <f t="shared" si="66"/>
         <v>10610339408.142</v>
       </c>
       <c r="O34" s="1">
-        <f>G34*$B$34</f>
+        <f t="shared" si="66"/>
         <v>18847980391.494598</v>
       </c>
       <c r="P34" s="1">
-        <f>H34*$B$34</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <f>C34*$C$34</f>
+        <f t="shared" ref="Q34:V34" si="67">C34*$C$34</f>
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <f>D34*$C$34</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <f>E34*$C$34</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <f>F34*$C$34</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="U34" s="1">
-        <f>G34*$C$34</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <f>H34*$C$34</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="W34" s="1">
@@ -9495,11 +10012,11 @@
         <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <f>H34*H34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
       <c r="B35" s="2">
         <v>149759.96</v>
       </c>
@@ -9522,55 +10039,55 @@
         <v>304981.62</v>
       </c>
       <c r="J35" s="1">
-        <f>B35*B35</f>
+        <f t="shared" si="0"/>
         <v>22428045619.201599</v>
       </c>
       <c r="K35" s="1">
-        <f>C35*$B$35</f>
+        <f t="shared" ref="K35:P35" si="68">C35*$B$35</f>
         <v>149759.96</v>
       </c>
       <c r="L35" s="1">
-        <f>D35*$B$35</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f>E35*$B$35</f>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f>F35*$B$35</f>
+        <f t="shared" si="68"/>
         <v>18470626695.4048</v>
       </c>
       <c r="O35" s="1">
-        <f>G35*$B$35</f>
+        <f t="shared" si="68"/>
         <v>16275788152.033199</v>
       </c>
       <c r="P35" s="1">
-        <f>H35*$B$35</f>
+        <f t="shared" si="68"/>
         <v>45674035211.935196</v>
       </c>
       <c r="Q35" s="1">
-        <f>C35*$C$35</f>
+        <f t="shared" ref="Q35:V35" si="69">C35*$C$35</f>
         <v>1</v>
       </c>
       <c r="R35" s="1">
-        <f>D35*$C$35</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <f>E35*$C$35</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <f>F35*$C$35</f>
+        <f t="shared" si="69"/>
         <v>123334.88</v>
       </c>
       <c r="U35" s="1">
-        <f>G35*$C$35</f>
+        <f t="shared" si="69"/>
         <v>108679.17</v>
       </c>
       <c r="V35" s="1">
-        <f>H35*$C$35</f>
+        <f t="shared" si="69"/>
         <v>304981.62</v>
       </c>
       <c r="W35" s="1">
@@ -9630,11 +10147,11 @@
         <v>33145149326.8554</v>
       </c>
       <c r="AK35" s="1">
-        <f>H35*H35</f>
+        <f t="shared" si="3"/>
         <v>93013788537.824402</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:37">
       <c r="B36" s="2">
         <v>81005.759999999995</v>
       </c>
@@ -9657,55 +10174,55 @@
         <v>174999.3</v>
       </c>
       <c r="J36" s="1">
-        <f>B36*B36</f>
+        <f t="shared" si="0"/>
         <v>6561933153.177599</v>
       </c>
       <c r="K36" s="1">
-        <f>C36*$B$36</f>
+        <f t="shared" ref="K36:P36" si="70">C36*$B$36</f>
         <v>81005.759999999995</v>
       </c>
       <c r="L36" s="1">
-        <f>D36*$B$36</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="M36" s="1">
-        <f>E36*$B$36</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="N36" s="1">
-        <f>F36*$B$36</f>
+        <f t="shared" si="70"/>
         <v>3123461407.0176001</v>
       </c>
       <c r="O36" s="1">
-        <f>G36*$B$36</f>
+        <f t="shared" si="70"/>
         <v>6722027266.8383989</v>
       </c>
       <c r="P36" s="1">
-        <f>H36*$B$36</f>
+        <f t="shared" si="70"/>
         <v>14175951295.967999</v>
       </c>
       <c r="Q36" s="1">
-        <f>C36*$C$36</f>
+        <f t="shared" ref="Q36:V36" si="71">C36*$C$36</f>
         <v>1</v>
       </c>
       <c r="R36" s="1">
-        <f>D36*$C$36</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <f>E36*$C$36</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="T36" s="1">
-        <f>F36*$C$36</f>
+        <f t="shared" si="71"/>
         <v>38558.51</v>
       </c>
       <c r="U36" s="1">
-        <f>G36*$C$36</f>
+        <f t="shared" si="71"/>
         <v>82982.09</v>
       </c>
       <c r="V36" s="1">
-        <f>H36*$C$36</f>
+        <f t="shared" si="71"/>
         <v>174999.3</v>
       </c>
       <c r="W36" s="1">
@@ -9765,11 +10282,11 @@
         <v>14521807662.536999</v>
       </c>
       <c r="AK36" s="1">
-        <f>H36*H36</f>
+        <f t="shared" si="3"/>
         <v>30624755000.489994</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:37">
       <c r="B37" s="2">
         <v>49490.75</v>
       </c>
@@ -9792,55 +10309,55 @@
         <v>297114.46000000002</v>
       </c>
       <c r="J37" s="1">
-        <f>B37*B37</f>
+        <f t="shared" si="0"/>
         <v>2449334335.5625</v>
       </c>
       <c r="K37" s="1">
-        <f>C37*$B$37</f>
+        <f t="shared" ref="K37:P37" si="72">C37*$B$37</f>
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <f>D37*$B$37</f>
+        <f t="shared" si="72"/>
         <v>49490.75</v>
       </c>
       <c r="M37" s="1">
-        <f>E37*$B$37</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f>F37*$B$37</f>
+        <f t="shared" si="72"/>
         <v>65103101.995000005</v>
       </c>
       <c r="O37" s="1">
-        <f>G37*$B$37</f>
+        <f t="shared" si="72"/>
         <v>5731831095.0574999</v>
       </c>
       <c r="P37" s="1">
-        <f>H37*$B$37</f>
+        <f t="shared" si="72"/>
         <v>14704417461.245001</v>
       </c>
       <c r="Q37" s="1">
-        <f>C37*$C$37</f>
+        <f t="shared" ref="Q37:V37" si="73">C37*$C$37</f>
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f>D37*$C$37</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <f>E37*$C$37</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="T37" s="1">
-        <f>F37*$C$37</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <f>G37*$C$37</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <f>H37*$C$37</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W37" s="1">
@@ -9900,11 +10417,11 @@
         <v>34410670693.396606</v>
       </c>
       <c r="AK37" s="1">
-        <f>H37*H37</f>
+        <f t="shared" si="3"/>
         <v>88277002341.091614</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:37">
       <c r="B38" s="2">
         <v>182901.99</v>
       </c>
@@ -9927,55 +10444,55 @@
         <v>383199.62</v>
       </c>
       <c r="J38" s="1">
-        <f>B38*B38</f>
+        <f t="shared" si="0"/>
         <v>33453137945.960098</v>
       </c>
       <c r="K38" s="1">
-        <f>C38*$B$38</f>
+        <f t="shared" ref="K38:P38" si="74">C38*$B$38</f>
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <f>D38*$B$38</f>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <f>E38*$B$38</f>
+        <f t="shared" si="74"/>
         <v>182901.99</v>
       </c>
       <c r="N38" s="1">
-        <f>F38*$B$38</f>
+        <f t="shared" si="74"/>
         <v>26406001090.095898</v>
       </c>
       <c r="O38" s="1">
-        <f>G38*$B$38</f>
+        <f t="shared" si="74"/>
         <v>21705317521.981499</v>
       </c>
       <c r="P38" s="1">
-        <f>H38*$B$38</f>
+        <f t="shared" si="74"/>
         <v>70087973065.24379</v>
       </c>
       <c r="Q38" s="1">
-        <f>C38*$C$38</f>
+        <f t="shared" ref="Q38:V38" si="75">C38*$C$38</f>
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <f>D38*$C$38</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <f>E38*$C$38</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="T38" s="1">
-        <f>F38*$C$38</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <f>G38*$C$38</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <f>H38*$C$38</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="W38" s="1">
@@ -10035,11 +10552,11 @@
         <v>45475007824.696999</v>
       </c>
       <c r="AK38" s="1">
-        <f>H38*H38</f>
+        <f t="shared" si="3"/>
         <v>146841948768.14441</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:37">
       <c r="B39" s="2">
         <v>192261.83</v>
       </c>
@@ -10062,55 +10579,55 @@
         <v>471784.1</v>
       </c>
       <c r="J39" s="1">
-        <f>B39*B39</f>
+        <f t="shared" si="0"/>
         <v>36964611274.948898</v>
       </c>
       <c r="K39" s="1">
-        <f>C39*$B$39</f>
+        <f t="shared" ref="K39:P39" si="76">C39*$B$39</f>
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <f>D39*$B$39</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f>E39*$B$39</f>
+        <f t="shared" si="76"/>
         <v>192261.83</v>
       </c>
       <c r="N39" s="1">
-        <f>F39*$B$39</f>
+        <f t="shared" si="76"/>
         <v>31790339781.035999</v>
       </c>
       <c r="O39" s="1">
-        <f>G39*$B$39</f>
+        <f t="shared" si="76"/>
         <v>26320221550.973995</v>
       </c>
       <c r="P39" s="1">
-        <f>H39*$B$39</f>
+        <f t="shared" si="76"/>
         <v>90706074430.902985</v>
       </c>
       <c r="Q39" s="1">
-        <f>C39*$C$39</f>
+        <f t="shared" ref="Q39:V39" si="77">C39*$C$39</f>
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <f>D39*$C$39</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <f>E39*$C$39</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="T39" s="1">
-        <f>F39*$C$39</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="U39" s="1">
-        <f>G39*$C$39</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <f>H39*$C$39</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="W39" s="1">
@@ -10170,11 +10687,11 @@
         <v>64586205364.979988</v>
       </c>
       <c r="AK39" s="1">
-        <f>H39*H39</f>
+        <f t="shared" si="3"/>
         <v>222580237012.80997</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:37">
       <c r="B40" s="2">
         <v>42559.73</v>
       </c>
@@ -10197,55 +10714,55 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f>B40*B40</f>
+        <f t="shared" si="0"/>
         <v>1811330617.6729002</v>
       </c>
       <c r="K40" s="1">
-        <f>C40*$B$40</f>
+        <f t="shared" ref="K40:P40" si="78">C40*$B$40</f>
         <v>42559.73</v>
       </c>
       <c r="L40" s="1">
-        <f>D40*$B$40</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f>E40*$B$40</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f>F40*$B$40</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <f>G40*$B$40</f>
+        <f t="shared" si="78"/>
         <v>5763733149.9316006</v>
       </c>
       <c r="P40" s="1">
-        <f>H40*$B$40</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <f>C40*$C$40</f>
+        <f t="shared" ref="Q40:V40" si="79">C40*$C$40</f>
         <v>1</v>
       </c>
       <c r="R40" s="1">
-        <f>D40*$C$40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <f>E40*$C$40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <f>F40*$C$40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="U40" s="1">
-        <f>G40*$C$40</f>
+        <f t="shared" si="79"/>
         <v>135426.92000000001</v>
       </c>
       <c r="V40" s="1">
-        <f>H40*$C$40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="W40" s="1">
@@ -10305,11 +10822,11 @@
         <v>0</v>
       </c>
       <c r="AK40" s="1">
-        <f>H40*H40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
       <c r="B41" s="2">
         <v>65200.33</v>
       </c>
@@ -10332,55 +10849,55 @@
         <v>28334.720000000001</v>
       </c>
       <c r="J41" s="1">
-        <f>B41*B41</f>
+        <f t="shared" si="0"/>
         <v>4251083032.1089001</v>
       </c>
       <c r="K41" s="1">
-        <f>C41*$B$41</f>
+        <f t="shared" ref="K41:P41" si="80">C41*$B$41</f>
         <v>65200.33</v>
       </c>
       <c r="L41" s="1">
-        <f>D41*$B$41</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <f>E41*$B$41</f>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <f>F41*$B$41</f>
+        <f t="shared" si="80"/>
         <v>1445995966.6542001</v>
       </c>
       <c r="O41" s="1">
-        <f>G41*$B$41</f>
+        <f t="shared" si="80"/>
         <v>10093411414.026201</v>
       </c>
       <c r="P41" s="1">
-        <f>H41*$B$41</f>
+        <f t="shared" si="80"/>
         <v>1847433094.4576001</v>
       </c>
       <c r="Q41" s="1">
-        <f>C41*$C$41</f>
+        <f t="shared" ref="Q41:V41" si="81">C41*$C$41</f>
         <v>1</v>
       </c>
       <c r="R41" s="1">
-        <f>D41*$C$41</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <f>E41*$C$41</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="T41" s="1">
-        <f>F41*$C$41</f>
+        <f t="shared" si="81"/>
         <v>22177.74</v>
       </c>
       <c r="U41" s="1">
-        <f>G41*$C$41</f>
+        <f t="shared" si="81"/>
         <v>154806.14000000001</v>
       </c>
       <c r="V41" s="1">
-        <f>H41*$C$41</f>
+        <f t="shared" si="81"/>
         <v>28334.720000000001</v>
       </c>
       <c r="W41" s="1">
@@ -10440,222 +10957,222 @@
         <v>4386388631.1808004</v>
       </c>
       <c r="AK41" s="1">
-        <f>H41*H41</f>
+        <f t="shared" si="3"/>
         <v>802856357.47840011</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:37">
       <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="1">
-        <f>SUM(B2:B41)</f>
+        <f t="shared" ref="B43:H43" si="82">SUM(B2:B41)</f>
         <v>4377857.8900000006</v>
       </c>
       <c r="C43" s="1">
-        <f>SUM(C2:C41)</f>
+        <f t="shared" si="82"/>
         <v>16</v>
       </c>
       <c r="D43" s="1">
-        <f>SUM(D2:D41)</f>
+        <f t="shared" si="82"/>
         <v>10</v>
       </c>
       <c r="E43" s="1">
-        <f>SUM(E2:E41)</f>
+        <f t="shared" si="82"/>
         <v>14</v>
       </c>
       <c r="F43" s="1">
-        <f>SUM(F2:F41)</f>
+        <f t="shared" si="82"/>
         <v>2866534.32</v>
       </c>
       <c r="G43" s="1">
-        <f>SUM(G2:G41)</f>
+        <f t="shared" si="82"/>
         <v>4935656.459999999</v>
       </c>
       <c r="H43" s="1">
-        <f>SUM(H2:H41)</f>
+        <f t="shared" si="82"/>
         <v>8085641.1199999992</v>
       </c>
       <c r="J43" s="1">
-        <f>SUM(J2:J41)</f>
+        <f t="shared" ref="J43:AK43" si="83">SUM(J2:J41)</f>
         <v>544639828968.15082</v>
       </c>
       <c r="K43" s="1">
-        <f>SUM(K2:K41)</f>
+        <f t="shared" si="83"/>
         <v>1622128.5799999998</v>
       </c>
       <c r="L43" s="1">
-        <f>SUM(L2:L41)</f>
+        <f t="shared" si="83"/>
         <v>1105590.6499999999</v>
       </c>
       <c r="M43" s="1">
-        <f>SUM(M2:M41)</f>
+        <f t="shared" si="83"/>
         <v>1650138.6600000001</v>
       </c>
       <c r="N43" s="1">
-        <f>SUM(N2:N41)</f>
+        <f t="shared" si="83"/>
         <v>386409376769.883</v>
       </c>
       <c r="O43" s="1">
-        <f>SUM(O2:O41)</f>
+        <f t="shared" si="83"/>
         <v>554125898980.19873</v>
       </c>
       <c r="P43" s="1">
-        <f>SUM(P2:P41)</f>
+        <f t="shared" si="83"/>
         <v>1034968595707.1611</v>
       </c>
       <c r="Q43" s="1">
-        <f>SUM(Q2:Q41)</f>
+        <f t="shared" si="83"/>
         <v>16</v>
       </c>
       <c r="R43" s="1">
-        <f>SUM(R2:R41)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <f>SUM(S2:S41)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T43" s="1">
-        <f>SUM(T2:T41)</f>
+        <f t="shared" si="83"/>
         <v>998508.49999999988</v>
       </c>
       <c r="U43" s="1">
-        <f>SUM(U2:U41)</f>
+        <f t="shared" si="83"/>
         <v>1960900.0099999998</v>
       </c>
       <c r="V43" s="1">
-        <f>SUM(V2:V41)</f>
+        <f t="shared" si="83"/>
         <v>2853451.25</v>
       </c>
       <c r="W43" s="1">
-        <f>SUM(W2:W41)</f>
+        <f t="shared" si="83"/>
         <v>10</v>
       </c>
       <c r="X43" s="1">
-        <f>SUM(X2:X41)</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <f>SUM(Y2:Y41)</f>
+        <f t="shared" si="83"/>
         <v>726183.33</v>
       </c>
       <c r="Z43" s="1">
-        <f>SUM(Z2:Z41)</f>
+        <f t="shared" si="83"/>
         <v>1255031.8500000001</v>
       </c>
       <c r="AA43" s="1">
-        <f>SUM(AA2:AA41)</f>
+        <f t="shared" si="83"/>
         <v>2367974.7399999998</v>
       </c>
       <c r="AB43" s="1">
-        <f>SUM(AB2:AB41)</f>
+        <f t="shared" si="83"/>
         <v>14</v>
       </c>
       <c r="AC43" s="1">
-        <f>SUM(AC2:AC41)</f>
+        <f t="shared" si="83"/>
         <v>1141842.49</v>
       </c>
       <c r="AD43" s="1">
-        <f>SUM(AD2:AD41)</f>
+        <f t="shared" si="83"/>
         <v>1719724.6000000003</v>
       </c>
       <c r="AE43" s="1">
-        <f>SUM(AE2:AE41)</f>
+        <f t="shared" si="83"/>
         <v>2864215.1300000004</v>
       </c>
       <c r="AF43" s="1">
-        <f>SUM(AF2:AF41)</f>
+        <f t="shared" si="83"/>
         <v>290765345774.77118</v>
       </c>
       <c r="AG43" s="1">
-        <f>SUM(AG2:AG41)</f>
+        <f t="shared" si="83"/>
         <v>370112719005.33325</v>
       </c>
       <c r="AH43" s="1">
-        <f>SUM(AH2:AH41)</f>
+        <f t="shared" si="83"/>
         <v>744494916596.18176</v>
       </c>
       <c r="AI43" s="1">
-        <f>SUM(AI2:AI41)</f>
+        <f t="shared" si="83"/>
         <v>635824225285.37988</v>
       </c>
       <c r="AJ43" s="1">
-        <f>SUM(AJ2:AJ41)</f>
+        <f t="shared" si="83"/>
         <v>1008343651790.928</v>
       </c>
       <c r="AK43" s="1">
-        <f>SUM(AK2:AK41)</f>
+        <f t="shared" si="83"/>
         <v>2244137095732.2808</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:37">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="1">
-        <f>AVERAGE(B2:B41)</f>
+        <f t="shared" ref="B44:H44" si="84">AVERAGE(B2:B41)</f>
         <v>109446.44725000001</v>
       </c>
       <c r="C44" s="1">
-        <f>AVERAGE(C2:C41)</f>
+        <f t="shared" si="84"/>
         <v>0.4</v>
       </c>
       <c r="D44" s="1">
-        <f>AVERAGE(D2:D41)</f>
+        <f t="shared" si="84"/>
         <v>0.25</v>
       </c>
       <c r="E44" s="1">
-        <f>AVERAGE(E2:E41)</f>
+        <f t="shared" si="84"/>
         <v>0.35</v>
       </c>
       <c r="F44" s="1">
-        <f>AVERAGE(F2:F41)</f>
+        <f t="shared" si="84"/>
         <v>71663.357999999993</v>
       </c>
       <c r="G44" s="1">
-        <f>AVERAGE(G2:G41)</f>
+        <f t="shared" si="84"/>
         <v>123391.41149999997</v>
       </c>
       <c r="H44" s="1">
-        <f>AVERAGE(H2:H41)</f>
+        <f t="shared" si="84"/>
         <v>202141.02799999999</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:37">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B45" s="1">
-        <f>COUNT(B2:B41)</f>
+        <f t="shared" ref="B45:H45" si="85">COUNT(B2:B41)</f>
         <v>40</v>
       </c>
       <c r="C45" s="1">
-        <f>COUNT(C2:C41)</f>
+        <f t="shared" si="85"/>
         <v>40</v>
       </c>
       <c r="D45" s="1">
-        <f>COUNT(D2:D41)</f>
+        <f t="shared" si="85"/>
         <v>40</v>
       </c>
       <c r="E45" s="1">
-        <f>COUNT(E2:E41)</f>
+        <f t="shared" si="85"/>
         <v>40</v>
       </c>
       <c r="F45" s="1">
-        <f>COUNT(F2:F41)</f>
+        <f t="shared" si="85"/>
         <v>40</v>
       </c>
       <c r="G45" s="1">
-        <f>COUNT(G2:G41)</f>
+        <f t="shared" si="85"/>
         <v>40</v>
       </c>
       <c r="H45" s="1">
-        <f>COUNT(H2:H41)</f>
+        <f t="shared" si="85"/>
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:37" ht="18">
       <c r="B48" s="1" t="s">
         <v>23</v>
       </c>
@@ -10678,40 +11195,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="1">
-        <f>J43-(B43*$B$43)/$B$45</f>
+        <f t="shared" ref="B49:H49" si="86">J43-(B43*$B$43)/$B$45</f>
         <v>65498836342.269348</v>
       </c>
       <c r="C49" s="1">
-        <f>K43-(C43*$B$43)/$B$45</f>
+        <f t="shared" si="86"/>
         <v>-129014.57600000035</v>
       </c>
       <c r="D49" s="1">
-        <f>L43-(D43*$B$43)/$B$45</f>
+        <f t="shared" si="86"/>
         <v>11126.177499999758</v>
       </c>
       <c r="E49" s="1">
-        <f>M43-(E43*$B$43)/$B$45</f>
+        <f t="shared" si="86"/>
         <v>117888.39849999989</v>
       </c>
       <c r="F49" s="1">
-        <f>N43-(F43*$B$43)/$B$45</f>
+        <f t="shared" si="86"/>
         <v>72677379525.688354</v>
       </c>
       <c r="G49" s="1">
-        <f>O43-(G43*$B$43)/$B$45</f>
+        <f t="shared" si="86"/>
         <v>13935834586.687012</v>
       </c>
       <c r="H49" s="1">
-        <f>P43-(H43*$B$43)/$B$45</f>
+        <f t="shared" si="86"/>
         <v>150023901384.65015</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="18">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -10720,31 +11237,31 @@
         <v>-129014.57600000035</v>
       </c>
       <c r="C50" s="1">
-        <f>Q43-(C43*$C$43)/$B$45</f>
+        <f t="shared" ref="C50:H50" si="87">Q43-(C43*$C$43)/$B$45</f>
         <v>9.6</v>
       </c>
       <c r="D50" s="1">
-        <f>R43-(D43*$C$43)/$B$45</f>
+        <f t="shared" si="87"/>
         <v>-4</v>
       </c>
       <c r="E50" s="1">
-        <f>S43-(E43*$C$43)/$B$45</f>
+        <f t="shared" si="87"/>
         <v>-5.6</v>
       </c>
       <c r="F50" s="1">
-        <f>T43-(F43*$C$43)/$B$45</f>
+        <f t="shared" si="87"/>
         <v>-148105.228</v>
       </c>
       <c r="G50" s="1">
-        <f>U43-(G43*$C$43)/$B$45</f>
+        <f t="shared" si="87"/>
         <v>-13362.57399999979</v>
       </c>
       <c r="H50" s="1">
-        <f>V43-(H43*$C$43)/$B$45</f>
+        <f t="shared" si="87"/>
         <v>-380805.19799999986</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" ht="18">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -10776,7 +11293,7 @@
         <v>346564.45999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" ht="18">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -10807,7 +11324,7 @@
         <v>34240.738000000361</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" ht="18">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -10837,7 +11354,7 @@
         <v>165050722354.10095</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" ht="18">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -10866,7 +11383,7 @@
         <v>10644981111.687378</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" ht="18">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
@@ -10894,7 +11411,7 @@
         <v>609697287696.40967</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" ht="18">
       <c r="C59" s="1" t="s">
         <v>19</v>
       </c>
@@ -10914,7 +11431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="18">
       <c r="B60" s="1" t="s">
         <v>19</v>
       </c>
@@ -10943,7 +11460,7 @@
         <v>3.6610025863862639E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="18">
       <c r="B61" s="1" t="s">
         <v>18</v>
       </c>
@@ -10951,7 +11468,7 @@
         <v>-1194072.8238843395</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="18">
       <c r="B62" s="1" t="s">
         <v>17</v>
       </c>
@@ -10959,7 +11476,7 @@
         <v>-1151168.7089232998</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="18">
       <c r="B63" s="1" t="s">
         <v>16</v>
       </c>
@@ -10967,7 +11484,7 @@
         <v>0.77346719273277409</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" ht="18">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -10975,7 +11492,7 @@
         <v>3.2884597536326887E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:15" ht="18">
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
@@ -10983,33 +11500,33 @@
         <v>3.6610025863862639E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:15">
       <c r="C68" s="1">
-        <f>C60*C44</f>
+        <f t="shared" ref="C68:H68" si="88">C60*C44</f>
         <v>-480095.5727309123</v>
       </c>
       <c r="D68" s="1">
-        <f>D60*D44</f>
+        <f t="shared" si="88"/>
         <v>-298518.20597108488</v>
       </c>
       <c r="E68" s="1">
-        <f>E60*E44</f>
+        <f t="shared" si="88"/>
         <v>-402909.04812315491</v>
       </c>
       <c r="F68" s="1">
-        <f>F60*F44</f>
+        <f t="shared" si="88"/>
         <v>55429.256334063779</v>
       </c>
       <c r="G68" s="1">
-        <f>G60*G44</f>
+        <f t="shared" si="88"/>
         <v>4057.6769066167963</v>
       </c>
       <c r="H68" s="1">
-        <f>H60*H44</f>
+        <f t="shared" si="88"/>
         <v>7400.3882632277819</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:15" ht="18">
       <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
@@ -11018,7 +11535,7 @@
         <v>1224081.9525712435</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:15" ht="18">
       <c r="C71" s="1" t="s">
         <v>12</v>
       </c>
@@ -11056,29 +11573,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:15">
       <c r="C72" s="1">
-        <f>J72*$C$60</f>
+        <f t="shared" ref="C72:C81" si="89">J72*$C$60</f>
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <f>K72*$D$60</f>
+        <f t="shared" ref="D72:D81" si="90">K72*$D$60</f>
         <v>-1194072.8238843395</v>
       </c>
       <c r="E72" s="1">
-        <f>L72*$E$60</f>
+        <f t="shared" ref="E72:E81" si="91">L72*$E$60</f>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f>M72*$F$60</f>
+        <f t="shared" ref="F72:F81" si="92">M72*$F$60</f>
         <v>51088.683750132688</v>
       </c>
       <c r="G72" s="1">
-        <f>N72*$G$60</f>
+        <f t="shared" ref="G72:G81" si="93">N72*$G$60</f>
         <v>6006.2257323970443</v>
       </c>
       <c r="H72" s="1">
-        <f>O72*$H$60</f>
+        <f t="shared" ref="H72:H81" si="94">O72*$H$60</f>
         <v>4325.4086577688158</v>
       </c>
       <c r="J72" s="1">
@@ -11100,29 +11617,29 @@
         <v>118148.2</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:15">
       <c r="C73" s="1">
-        <f>J73*$C$60</f>
+        <f t="shared" si="89"/>
         <v>-1200238.9318272807</v>
       </c>
       <c r="D73" s="1">
-        <f>K73*$D$60</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f>L73*$E$60</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F73" s="1">
-        <f>M73*$F$60</f>
+        <f t="shared" si="92"/>
         <v>77866.458288106136</v>
       </c>
       <c r="G73" s="1">
-        <f>N73*$G$60</f>
+        <f t="shared" si="93"/>
         <v>3018.4972674639421</v>
       </c>
       <c r="H73" s="1">
-        <f>O73*$H$60</f>
+        <f t="shared" si="94"/>
         <v>9143.1544348587358</v>
       </c>
       <c r="J73" s="1">
@@ -11144,29 +11661,29 @@
         <v>249744.55</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:15">
       <c r="C74" s="1">
-        <f>J74*$C$60</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <f>K74*$D$60</f>
+        <f t="shared" si="90"/>
         <v>-1194072.8238843395</v>
       </c>
       <c r="E74" s="1">
-        <f>L74*$E$60</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F74" s="1">
-        <f>M74*$F$60</f>
+        <f t="shared" si="92"/>
         <v>78826.423890350619</v>
       </c>
       <c r="G74" s="1">
-        <f>N74*$G$60</f>
+        <f t="shared" si="93"/>
         <v>3636.8427972382647</v>
       </c>
       <c r="H74" s="1">
-        <f>O74*$H$60</f>
+        <f t="shared" si="94"/>
         <v>8389.5883064873342</v>
       </c>
       <c r="J74" s="1">
@@ -11188,29 +11705,29 @@
         <v>229160.95</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:15">
       <c r="C75" s="1">
-        <f>J75*$C$60</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <f>K75*$D$60</f>
+        <f t="shared" si="90"/>
         <v>-1194072.8238843395</v>
       </c>
       <c r="E75" s="1">
-        <f>L75*$E$60</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f>M75*$F$60</f>
+        <f t="shared" si="92"/>
         <v>21574.258529519848</v>
       </c>
       <c r="G75" s="1">
-        <f>N75*$G$60</f>
+        <f t="shared" si="93"/>
         <v>2785.6795784423539</v>
       </c>
       <c r="H75" s="1">
-        <f>O75*$H$60</f>
+        <f t="shared" si="94"/>
         <v>6021.2769469478508</v>
       </c>
       <c r="J75" s="1">
@@ -11232,29 +11749,29 @@
         <v>164470.71</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:15">
       <c r="C76" s="1">
-        <f>J76*$C$60</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <f>K76*$D$60</f>
+        <f t="shared" si="90"/>
         <v>-1194072.8238843395</v>
       </c>
       <c r="E76" s="1">
-        <f>L76*$E$60</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F76" s="1">
-        <f>M76*$F$60</f>
+        <f t="shared" si="92"/>
         <v>118681.9739883779</v>
       </c>
       <c r="G76" s="1">
-        <f>N76*$G$60</f>
+        <f t="shared" si="93"/>
         <v>3326.1307043404281</v>
       </c>
       <c r="H76" s="1">
-        <f>O76*$H$60</f>
+        <f t="shared" si="94"/>
         <v>14934.494060162908</v>
       </c>
       <c r="J76" s="1">
@@ -11276,29 +11793,29 @@
         <v>407934.54</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:15">
       <c r="C77" s="1">
-        <f>J77*$C$60</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <f>K77*$D$60</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <f>L77*$E$60</f>
+        <f t="shared" si="91"/>
         <v>-1151168.7089232998</v>
       </c>
       <c r="F77" s="1">
-        <f>M77*$F$60</f>
+        <f t="shared" si="92"/>
         <v>55772.862946697787</v>
       </c>
       <c r="G77" s="1">
-        <f>N77*$G$60</f>
+        <f t="shared" si="93"/>
         <v>4204.7742659135465</v>
       </c>
       <c r="H77" s="1">
-        <f>O77*$H$60</f>
+        <f t="shared" si="94"/>
         <v>12930.068418797548</v>
       </c>
       <c r="J77" s="1">
@@ -11320,29 +11837,29 @@
         <v>353183.81</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:15">
       <c r="C78" s="1">
-        <f>J78*$C$60</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f>K78*$D$60</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f>L78*$E$60</f>
+        <f t="shared" si="91"/>
         <v>-1151168.7089232998</v>
       </c>
       <c r="F78" s="1">
-        <f>M78*$F$60</f>
+        <f t="shared" si="92"/>
         <v>15646.924187434999</v>
       </c>
       <c r="G78" s="1">
-        <f>N78*$G$60</f>
+        <f t="shared" si="93"/>
         <v>2168.6711364038579</v>
       </c>
       <c r="H78" s="1">
-        <f>O78*$H$60</f>
+        <f t="shared" si="94"/>
         <v>6782.5601026710983</v>
       </c>
       <c r="J78" s="1">
@@ -11364,29 +11881,29 @@
         <v>185265.1</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:15">
       <c r="C79" s="1">
-        <f>J79*$C$60</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <f>K79*$D$60</f>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <f>L79*$E$60</f>
+        <f t="shared" si="91"/>
         <v>-1151168.7089232998</v>
       </c>
       <c r="F79" s="1">
-        <f>M79*$F$60</f>
+        <f t="shared" si="92"/>
         <v>47286.984212444113</v>
       </c>
       <c r="G79" s="1">
-        <f>N79*$G$60</f>
+        <f t="shared" si="93"/>
         <v>5021.5411822243859</v>
       </c>
       <c r="H79" s="1">
-        <f>O79*$H$60</f>
+        <f t="shared" si="94"/>
         <v>3229.6716819641829</v>
       </c>
       <c r="J79" s="1">
@@ -11408,29 +11925,29 @@
         <v>88218.23</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:15">
       <c r="C80" s="1">
-        <f>J80*$C$60</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <f>K80*$D$60</f>
+        <f t="shared" si="90"/>
         <v>-1194072.8238843395</v>
       </c>
       <c r="E80" s="1">
-        <f>L80*$E$60</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F80" s="1">
-        <f>M80*$F$60</f>
+        <f t="shared" si="92"/>
         <v>57232.364600696812</v>
       </c>
       <c r="G80" s="1">
-        <f>N80*$G$60</f>
+        <f t="shared" si="93"/>
         <v>4037.6613181534403</v>
       </c>
       <c r="H80" s="1">
-        <f>O80*$H$60</f>
+        <f t="shared" si="94"/>
         <v>11104.525953607677</v>
       </c>
       <c r="J80" s="1">
@@ -11452,29 +11969,29 @@
         <v>303319.26</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:15">
       <c r="C81" s="1">
-        <f>J81*$C$60</f>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <f>K81*$D$60</f>
+        <f t="shared" si="90"/>
         <v>-1194072.8238843395</v>
       </c>
       <c r="E81" s="1">
-        <f>L81*$E$60</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f>M81*$F$60</f>
+        <f t="shared" si="92"/>
         <v>109915.36533652185</v>
       </c>
       <c r="G81" s="1">
-        <f>N81*$G$60</f>
+        <f t="shared" si="93"/>
         <v>3005.3815745825536</v>
       </c>
       <c r="H81" s="1">
-        <f>O81*$H$60</f>
+        <f t="shared" si="94"/>
         <v>13405.435326729717</v>
       </c>
       <c r="J81" s="1">
@@ -11496,74 +12013,74 @@
         <v>366168.42</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:15">
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <f>$C$69+SUM(C72:H72)</f>
+        <f t="shared" ref="C83:C92" si="95">$C$69+SUM(C72:H72)</f>
         <v>91429.44682720257</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:15">
       <c r="C84" s="1">
-        <f>$C$69+SUM(C73:H73)</f>
+        <f t="shared" si="95"/>
         <v>113871.13073439174</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:15">
       <c r="C85" s="1">
-        <f>$C$69+SUM(C74:H74)</f>
+        <f t="shared" si="95"/>
         <v>120861.98368098028</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:15">
       <c r="C86" s="1">
-        <f>$C$69+SUM(C75:H75)</f>
+        <f t="shared" si="95"/>
         <v>60390.34374181414</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:15">
       <c r="C87" s="1">
-        <f>$C$69+SUM(C76:H76)</f>
+        <f t="shared" si="95"/>
         <v>166951.72743978538</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:15">
       <c r="C88" s="1">
-        <f>$C$69+SUM(C77:H77)</f>
+        <f t="shared" si="95"/>
         <v>145820.94927935256</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:15">
       <c r="C89" s="1">
-        <f>$C$69+SUM(C78:H78)</f>
+        <f t="shared" si="95"/>
         <v>97511.399074453861</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:15">
       <c r="C90" s="1">
-        <f>$C$69+SUM(C79:H79)</f>
+        <f t="shared" si="95"/>
         <v>128451.44072457636</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:15">
       <c r="C91" s="1">
-        <f>$C$69+SUM(C80:H80)</f>
+        <f t="shared" si="95"/>
         <v>102383.68055936182</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:15">
       <c r="C92" s="1">
-        <f>$C$69+SUM(C81:H81)</f>
+        <f t="shared" si="95"/>
         <v>156335.31092473795</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11574,24 +12091,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" ht="18">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -11635,7 +12152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16">
       <c r="B2" s="1">
         <v>8.23</v>
       </c>
@@ -11649,7 +12166,7 @@
         <v>1.58</v>
       </c>
       <c r="G2" s="1">
-        <f>B2*B2</f>
+        <f t="shared" ref="G2:G16" si="0">B2*B2</f>
         <v>67.732900000000001</v>
       </c>
       <c r="H2" s="1">
@@ -11689,7 +12206,7 @@
         <v>2.4964000000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16">
       <c r="B3" s="1">
         <v>8.26</v>
       </c>
@@ -11703,7 +12220,7 @@
         <v>1.28</v>
       </c>
       <c r="G3" s="1">
-        <f>B3*B3</f>
+        <f t="shared" si="0"/>
         <v>68.227599999999995</v>
       </c>
       <c r="H3" s="1">
@@ -11743,7 +12260,7 @@
         <v>1.6384000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16">
       <c r="B4" s="1">
         <v>9.33</v>
       </c>
@@ -11757,7 +12274,7 @@
         <v>0.64</v>
       </c>
       <c r="G4" s="1">
-        <f>B4*B4</f>
+        <f t="shared" si="0"/>
         <v>87.048900000000003</v>
       </c>
       <c r="H4" s="1">
@@ -11797,7 +12314,7 @@
         <v>0.40960000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16">
       <c r="B5" s="1">
         <v>8.92</v>
       </c>
@@ -11811,7 +12328,7 @@
         <v>0.08</v>
       </c>
       <c r="G5" s="1">
-        <f>B5*B5</f>
+        <f t="shared" si="0"/>
         <v>79.566400000000002</v>
       </c>
       <c r="H5" s="1">
@@ -11851,7 +12368,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16">
       <c r="B6" s="1">
         <v>8.89</v>
       </c>
@@ -11865,7 +12382,7 @@
         <v>0.38</v>
       </c>
       <c r="G6" s="1">
-        <f>B6*B6</f>
+        <f t="shared" si="0"/>
         <v>79.032100000000014</v>
       </c>
       <c r="H6" s="1">
@@ -11905,7 +12422,7 @@
         <v>0.1444</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16">
       <c r="B7" s="1">
         <v>8.34</v>
       </c>
@@ -11919,7 +12436,7 @@
         <v>1.45</v>
       </c>
       <c r="G7" s="1">
-        <f>B7*B7</f>
+        <f t="shared" si="0"/>
         <v>69.555599999999998</v>
       </c>
       <c r="H7" s="1">
@@ -11959,7 +12476,7 @@
         <v>2.1025</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16">
       <c r="B8" s="1">
         <v>8.51</v>
       </c>
@@ -11973,7 +12490,7 @@
         <v>2.31</v>
       </c>
       <c r="G8" s="1">
-        <f>B8*B8</f>
+        <f t="shared" si="0"/>
         <v>72.420099999999991</v>
       </c>
       <c r="H8" s="1">
@@ -12013,7 +12530,7 @@
         <v>5.3361000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16">
       <c r="B9" s="1">
         <v>9.15</v>
       </c>
@@ -12027,7 +12544,7 @@
         <v>3.6</v>
       </c>
       <c r="G9" s="1">
-        <f>B9*B9</f>
+        <f t="shared" si="0"/>
         <v>83.722500000000011</v>
       </c>
       <c r="H9" s="1">
@@ -12067,7 +12584,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16">
       <c r="B10" s="1">
         <v>9.4</v>
       </c>
@@ -12081,7 +12598,7 @@
         <v>2.59</v>
       </c>
       <c r="G10" s="1">
-        <f>B10*B10</f>
+        <f t="shared" si="0"/>
         <v>88.360000000000014</v>
       </c>
       <c r="H10" s="1">
@@ -12121,7 +12638,7 @@
         <v>6.7080999999999991</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16">
       <c r="B11" s="1">
         <v>9.01</v>
       </c>
@@ -12135,7 +12652,7 @@
         <v>1.62</v>
       </c>
       <c r="G11" s="1">
-        <f>B11*B11</f>
+        <f t="shared" si="0"/>
         <v>81.180099999999996</v>
       </c>
       <c r="H11" s="1">
@@ -12175,7 +12692,7 @@
         <v>2.6244000000000005</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16">
       <c r="B12" s="1">
         <v>8.77</v>
       </c>
@@ -12189,7 +12706,7 @@
         <v>3.16</v>
       </c>
       <c r="G12" s="1">
-        <f>B12*B12</f>
+        <f t="shared" si="0"/>
         <v>76.912899999999993</v>
       </c>
       <c r="H12" s="1">
@@ -12229,7 +12746,7 @@
         <v>9.9856000000000016</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16">
       <c r="B13" s="1">
         <v>8.11</v>
       </c>
@@ -12243,7 +12760,7 @@
         <v>0.23</v>
       </c>
       <c r="G13" s="1">
-        <f>B13*B13</f>
+        <f t="shared" si="0"/>
         <v>65.772099999999995</v>
       </c>
       <c r="H13" s="1">
@@ -12283,7 +12800,7 @@
         <v>5.2900000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16">
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -12297,7 +12814,7 @@
         <v>0.76</v>
       </c>
       <c r="G14" s="1">
-        <f>B14*B14</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="H14" s="1">
@@ -12337,7 +12854,7 @@
         <v>0.5776</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16">
       <c r="B15" s="1">
         <v>8.68</v>
       </c>
@@ -12351,7 +12868,7 @@
         <v>1.42</v>
       </c>
       <c r="G15" s="1">
-        <f>B15*B15</f>
+        <f t="shared" si="0"/>
         <v>75.342399999999998</v>
       </c>
       <c r="H15" s="1">
@@ -12391,7 +12908,7 @@
         <v>2.0164</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16">
       <c r="B16" s="1">
         <v>8.11</v>
       </c>
@@ -12405,7 +12922,7 @@
         <v>1.86</v>
       </c>
       <c r="G16" s="1">
-        <f>B16*B16</f>
+        <f t="shared" si="0"/>
         <v>65.772099999999995</v>
       </c>
       <c r="H16" s="1">
@@ -12445,7 +12962,7 @@
         <v>3.4596000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -12466,47 +12983,47 @@
         <v>22.96</v>
       </c>
       <c r="G18" s="1">
-        <f>SUM(G2:G16)</f>
+        <f t="shared" ref="G18:P18" si="1">SUM(G2:G16)</f>
         <v>1124.6456999999998</v>
       </c>
       <c r="H18" s="1">
-        <f>SUM(H2:H16)</f>
+        <f t="shared" si="1"/>
         <v>168.2071</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM(I2:I16)</f>
+        <f t="shared" si="1"/>
         <v>355.71960000000001</v>
       </c>
       <c r="J18" s="1">
-        <f>SUM(J2:J16)</f>
+        <f t="shared" si="1"/>
         <v>200.34120000000004</v>
       </c>
       <c r="K18" s="1">
-        <f>SUM(K2:K16)</f>
+        <f t="shared" si="1"/>
         <v>29.953900000000001</v>
       </c>
       <c r="L18" s="1">
-        <f>SUM(L2:L16)</f>
+        <f t="shared" si="1"/>
         <v>54.069100000000006</v>
       </c>
       <c r="M18" s="1">
-        <f>SUM(M2:M16)</f>
+        <f t="shared" si="1"/>
         <v>29.884500000000003</v>
       </c>
       <c r="N18" s="1">
-        <f>SUM(N2:N16)</f>
+        <f t="shared" si="1"/>
         <v>118.22340000000001</v>
       </c>
       <c r="O18" s="1">
-        <f>SUM(O2:O16)</f>
+        <f t="shared" si="1"/>
         <v>66.032800000000009</v>
       </c>
       <c r="P18" s="1">
-        <f>SUM(P2:P16)</f>
+        <f t="shared" si="1"/>
         <v>50.5184</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -12527,7 +13044,7 @@
         <v>1.5306666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -12548,7 +13065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="18">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -12562,7 +13079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -12583,7 +13100,7 @@
         <v>1.7984266666667565</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="18">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -12604,7 +13121,7 @@
         <v>-0.31555333333333024</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="18">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -12624,7 +13141,7 @@
         <v>2.8162666666666851</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" ht="18">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -12643,7 +13160,7 @@
         <v>15.374293333333334</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="18">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -12661,7 +13178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="18">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -12678,7 +13195,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" ht="18">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -12695,7 +13212,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" ht="18">
       <c r="C34" s="1" t="s">
         <v>19</v>
       </c>
@@ -12706,7 +13223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" ht="18">
       <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
@@ -12723,7 +13240,7 @@
         <v>0.18988675334685415</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" ht="18">
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
@@ -12731,7 +13248,7 @@
         <v>-0.46699377355347427</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" ht="18">
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -12739,7 +13256,7 @@
         <v>0.18988675334685415</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9">
       <c r="C40" s="1">
         <f>C35*C19</f>
         <v>-0.8096207713281699</v>
@@ -12753,7 +13270,7 @@
         <v>0.29065332378958475</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" ht="18">
       <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
@@ -12762,7 +13279,7 @@
         <v>10.452090304055815</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" ht="18">
       <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
@@ -12782,7 +13299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9">
       <c r="C44" s="1">
         <f>G44*$C$35</f>
         <v>-0.61552516826774206</v>
@@ -12805,7 +13322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9">
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
@@ -12815,7 +13332,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12823,29 +13340,1212 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="B2" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G14" si="0">B2*B2</f>
+        <v>67.732900000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <f>C2*$B$2</f>
+        <v>7.7362000000000002</v>
+      </c>
+      <c r="I2" s="1">
+        <f>D2*$B$2</f>
+        <v>34.730600000000003</v>
+      </c>
+      <c r="J2" s="1">
+        <f>E2*$B$2</f>
+        <v>13.003400000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <f>$C$2*C2</f>
+        <v>0.88359999999999994</v>
+      </c>
+      <c r="L2" s="1">
+        <f>$C$2*D2</f>
+        <v>3.9667999999999997</v>
+      </c>
+      <c r="M2" s="1">
+        <f>$C$2*E2</f>
+        <v>1.4852000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <f>D2*$D$2</f>
+        <v>17.808399999999999</v>
+      </c>
+      <c r="O2" s="1">
+        <f>E2*$D$2</f>
+        <v>6.6676000000000002</v>
+      </c>
+      <c r="P2" s="1">
+        <f>E2*$E$2</f>
+        <v>2.4964000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>87.048900000000003</v>
+      </c>
+      <c r="H3" s="1">
+        <f>C3*$B$3</f>
+        <v>5.6913</v>
+      </c>
+      <c r="I3" s="1">
+        <f>D3*$B$3</f>
+        <v>20.526000000000003</v>
+      </c>
+      <c r="J3" s="1">
+        <f>E3*$B$3</f>
+        <v>5.9712000000000005</v>
+      </c>
+      <c r="K3" s="1">
+        <f>C3*$C$3</f>
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <f>D3*$C$3</f>
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <f>E3*$C$3</f>
+        <v>0.39040000000000002</v>
+      </c>
+      <c r="N3" s="1">
+        <f>D3*$D$3</f>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="O3" s="1">
+        <f>E3*$D$3</f>
+        <v>1.4080000000000001</v>
+      </c>
+      <c r="P3" s="1">
+        <f>E3*$E$3</f>
+        <v>0.40960000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="B4" s="1">
+        <v>8.92</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>79.566400000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <f>C4*$B$4</f>
+        <v>10.436399999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <f>D4*$B$4</f>
+        <v>19.624000000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <f>E4*$B$4</f>
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f>C4*$C$4</f>
+        <v>1.3688999999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <f>D4*$C$4</f>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="M4" s="1">
+        <f>E4*$C$4</f>
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f>D4*$D$4</f>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="O4" s="1">
+        <f>E4*$D$4</f>
+        <v>0.17600000000000002</v>
+      </c>
+      <c r="P4" s="1">
+        <f>E4*$E$4</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>79.032100000000014</v>
+      </c>
+      <c r="H5" s="1">
+        <f>C5*$B$5</f>
+        <v>8.2677000000000014</v>
+      </c>
+      <c r="I5" s="1">
+        <f>D5*$B$5</f>
+        <v>20.002500000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <f>E5*$B$5</f>
+        <v>3.3782000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <f>C5*$C$5</f>
+        <v>0.86490000000000011</v>
+      </c>
+      <c r="L5" s="1">
+        <f>D5*$C$5</f>
+        <v>2.0925000000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <f>E5*$C$5</f>
+        <v>0.35340000000000005</v>
+      </c>
+      <c r="N5" s="1">
+        <f>D5*$D$5</f>
+        <v>5.0625</v>
+      </c>
+      <c r="O5" s="1">
+        <f>E5*$D$5</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="P5" s="1">
+        <f>E5*$E$5</f>
+        <v>0.1444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="1">
+        <v>8.34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>69.555599999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <f>C6*$B$6</f>
+        <v>16.179600000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <f>D6*$B$6</f>
+        <v>20.433</v>
+      </c>
+      <c r="J6" s="1">
+        <f>E6*$B$6</f>
+        <v>12.093</v>
+      </c>
+      <c r="K6" s="1">
+        <f>C6*$C$6</f>
+        <v>3.7635999999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <f>D6*$C$6</f>
+        <v>4.7530000000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <f>E6*$C$6</f>
+        <v>2.8129999999999997</v>
+      </c>
+      <c r="N6" s="1">
+        <f>D6*$D$6</f>
+        <v>6.0025000000000013</v>
+      </c>
+      <c r="O6" s="1">
+        <f>E6*$D$6</f>
+        <v>3.5525000000000002</v>
+      </c>
+      <c r="P6" s="1">
+        <f>E6*$E$6</f>
+        <v>2.1025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="1">
+        <v>9.15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.97</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>83.722500000000011</v>
+      </c>
+      <c r="H7" s="1">
+        <f>C7*$B$7</f>
+        <v>9.4245000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <f>D7*$B$7</f>
+        <v>27.175500000000003</v>
+      </c>
+      <c r="J7" s="1">
+        <f>E7*$B$7</f>
+        <v>32.940000000000005</v>
+      </c>
+      <c r="K7" s="1">
+        <f>C7*$C$7</f>
+        <v>1.0609</v>
+      </c>
+      <c r="L7" s="1">
+        <f>D7*$C$7</f>
+        <v>3.0591000000000004</v>
+      </c>
+      <c r="M7" s="1">
+        <f>E7*$C$7</f>
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="N7" s="1">
+        <f>D7*$D$7</f>
+        <v>8.8209000000000017</v>
+      </c>
+      <c r="O7" s="1">
+        <f>E7*$D$7</f>
+        <v>10.692</v>
+      </c>
+      <c r="P7" s="1">
+        <f>E7*$E$7</f>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>88.360000000000014</v>
+      </c>
+      <c r="H8" s="1">
+        <f>C8*$B$8</f>
+        <v>6.2980000000000009</v>
+      </c>
+      <c r="I8" s="1">
+        <f>D8*$B$8</f>
+        <v>27.26</v>
+      </c>
+      <c r="J8" s="1">
+        <f>E8*$B$8</f>
+        <v>24.346</v>
+      </c>
+      <c r="K8" s="1">
+        <f>C8*$C$8</f>
+        <v>0.44890000000000008</v>
+      </c>
+      <c r="L8" s="1">
+        <f>D8*$C$8</f>
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <f>E8*$C$8</f>
+        <v>1.7353000000000001</v>
+      </c>
+      <c r="N8" s="1">
+        <f>D8*$D$8</f>
+        <v>8.41</v>
+      </c>
+      <c r="O8" s="1">
+        <f>E8*$D$8</f>
+        <v>7.5109999999999992</v>
+      </c>
+      <c r="P8" s="1">
+        <f>E8*$E$8</f>
+        <v>6.7080999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>81.180099999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <f>C9*$B$9</f>
+        <v>7.0278</v>
+      </c>
+      <c r="I9" s="1">
+        <f>D9*$B$9</f>
+        <v>23.7864</v>
+      </c>
+      <c r="J9" s="1">
+        <f>E9*$B$9</f>
+        <v>14.596200000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <f>C9*$C$9</f>
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="L9" s="1">
+        <f>D9*$C$9</f>
+        <v>2.0592000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <f>E9*$C$9</f>
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <f>D9*$D$9</f>
+        <v>6.9696000000000007</v>
+      </c>
+      <c r="O9" s="1">
+        <f>E9*$D$9</f>
+        <v>4.2768000000000006</v>
+      </c>
+      <c r="P9" s="1">
+        <f>E9*$E$9</f>
+        <v>2.6244000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="1">
+        <v>8.77</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>76.912899999999993</v>
+      </c>
+      <c r="H10" s="1">
+        <f>C10*$B$10</f>
+        <v>9.6470000000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <f>D10*$B$10</f>
+        <v>23.152799999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <f>E10*$B$10</f>
+        <v>27.713200000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <f>C10*$C$10</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="L10" s="1">
+        <f>D10*$C$10</f>
+        <v>2.9040000000000004</v>
+      </c>
+      <c r="M10" s="1">
+        <f>E10*$C$10</f>
+        <v>3.4760000000000004</v>
+      </c>
+      <c r="N10" s="1">
+        <f>D10*$D$10</f>
+        <v>6.9696000000000007</v>
+      </c>
+      <c r="O10" s="1">
+        <f>E10*$D$10</f>
+        <v>8.3424000000000014</v>
+      </c>
+      <c r="P10" s="1">
+        <f>E10*$E$10</f>
+        <v>9.9856000000000016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>65.772099999999995</v>
+      </c>
+      <c r="H11" s="1">
+        <f>C11*$B$11</f>
+        <v>14.435799999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <f>D11*$B$11</f>
+        <v>19.382899999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <f>E11*$B$11</f>
+        <v>1.8653</v>
+      </c>
+      <c r="K11" s="1">
+        <f>C11*$C$11</f>
+        <v>3.1684000000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <f>D11*$C$11</f>
+        <v>4.2542</v>
+      </c>
+      <c r="M11" s="1">
+        <f>E11*$C$11</f>
+        <v>0.40940000000000004</v>
+      </c>
+      <c r="N11" s="1">
+        <f>D11*$D$11</f>
+        <v>5.7121000000000004</v>
+      </c>
+      <c r="O11" s="1">
+        <f>E11*$D$11</f>
+        <v>0.54970000000000008</v>
+      </c>
+      <c r="P11" s="1">
+        <f>E11*$E$11</f>
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H12" s="1">
+        <f>C12*$B$12</f>
+        <v>12.32</v>
+      </c>
+      <c r="I12" s="1">
+        <f>D12*$B$12</f>
+        <v>22.08</v>
+      </c>
+      <c r="J12" s="1">
+        <f>E12*$B$12</f>
+        <v>6.08</v>
+      </c>
+      <c r="K12" s="1">
+        <f>C12*$C$12</f>
+        <v>2.3715999999999999</v>
+      </c>
+      <c r="L12" s="1">
+        <f>D12*$C$12</f>
+        <v>4.2504</v>
+      </c>
+      <c r="M12" s="1">
+        <f>E12*$C$12</f>
+        <v>1.1704000000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <f>D12*$D$12</f>
+        <v>7.6175999999999986</v>
+      </c>
+      <c r="O12" s="1">
+        <f>E12*$D$12</f>
+        <v>2.0975999999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <f>E12*$E$12</f>
+        <v>0.5776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="1">
+        <v>8.68</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>75.342399999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <f>C13*$B$13</f>
+        <v>15.3636</v>
+      </c>
+      <c r="I13" s="1">
+        <f>D13*$B$13</f>
+        <v>19.356400000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <f>E13*$B$13</f>
+        <v>12.3256</v>
+      </c>
+      <c r="K13" s="1">
+        <f>C13*$C$13</f>
+        <v>3.1329000000000002</v>
+      </c>
+      <c r="L13" s="1">
+        <f>D13*$C$13</f>
+        <v>3.9470999999999998</v>
+      </c>
+      <c r="M13" s="1">
+        <f>E13*$C$13</f>
+        <v>2.5133999999999999</v>
+      </c>
+      <c r="N13" s="1">
+        <f>D13*$D$13</f>
+        <v>4.9729000000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <f>E13*$D$13</f>
+        <v>3.1665999999999999</v>
+      </c>
+      <c r="P13" s="1">
+        <f>E13*$E$13</f>
+        <v>2.0164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>65.772099999999995</v>
+      </c>
+      <c r="H14" s="1">
+        <f>C14*$B$14</f>
+        <v>18.004200000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <f>D14*$B$14</f>
+        <v>27.168499999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <f>E14*$B$14</f>
+        <v>15.0846</v>
+      </c>
+      <c r="K14" s="1">
+        <f>C14*$C$14</f>
+        <v>4.9284000000000008</v>
+      </c>
+      <c r="L14" s="1">
+        <f>D14*$C$14</f>
+        <v>7.4370000000000012</v>
+      </c>
+      <c r="M14" s="1">
+        <f>E14*$C$14</f>
+        <v>4.1292000000000009</v>
+      </c>
+      <c r="N14" s="1">
+        <f>D14*$D$14</f>
+        <v>11.2225</v>
+      </c>
+      <c r="O14" s="1">
+        <f>E14*$D$14</f>
+        <v>6.2310000000000008</v>
+      </c>
+      <c r="P14" s="1">
+        <f>E14*$E$14</f>
+        <v>3.4596000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1">
+        <f>SUM(B2:B14)</f>
+        <v>112.94000000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C2:C14)</f>
+        <v>16.479999999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(D2:D14)</f>
+        <v>35.199999999999996</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(E2:E14)</f>
+        <v>19.370000000000005</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:P16" si="1">SUM(G2:G14)</f>
+        <v>983.99800000000027</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>140.83210000000003</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>304.67860000000002</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>170.1103</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>24.182600000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>44.582300000000004</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>23.540900000000004</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
+        <v>99.248599999999996</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>55.52620000000001</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>43.543900000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1">
+        <f>AVERAGE(B2:B14)</f>
+        <v>8.6876923076923092</v>
+      </c>
+      <c r="C17" s="1">
+        <f>AVERAGE(C2:C14)</f>
+        <v>1.2676923076923075</v>
+      </c>
+      <c r="D17" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>2.7076923076923074</v>
+      </c>
+      <c r="E17" s="1">
+        <f>AVERAGE(E2:E14)</f>
+        <v>1.4900000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4">
+        <f>COUNT(B2:B14)</f>
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <f>COUNT(C2:C14)</f>
+        <v>13</v>
+      </c>
+      <c r="D18" s="4">
+        <f>COUNT(D2:D14)</f>
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <f>COUNT(E2:E14)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f>G16-(B16*$B$16)/$B$18</f>
+        <v>2.8100307692308206</v>
+      </c>
+      <c r="C22" s="1">
+        <f>H16-(C16*$B$16)/$B$18</f>
+        <v>-2.3410692307691932</v>
+      </c>
+      <c r="D22" s="1">
+        <f>I16-(D16*$B$16)/$B$18</f>
+        <v>-1.1281692307691742</v>
+      </c>
+      <c r="E22" s="1">
+        <f>J16-(E16*$B$16)/$B$18</f>
+        <v>1.8296999999999457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="array" ref="B23:B28">TRANSPOSE(C22:E22)</f>
+        <v>-2.3410692307691932</v>
+      </c>
+      <c r="C23" s="1">
+        <f>K16-(C16*$C$16)/$B$18</f>
+        <v>3.2910307692307796</v>
+      </c>
+      <c r="D23" s="1">
+        <f>L16-(D16*$C$16)/$B$18</f>
+        <v>-4.0469230769211606E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <f>M16-(E16*$C$16)/$B$18</f>
+        <v>-1.0142999999999951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-1.1281692307691742</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="array" ref="C24:C28">TRANSPOSE(D23:E23)</f>
+        <v>-4.0469230769211606E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <f>N16-(D16*$D$16)/$B$18</f>
+        <v>3.9378307692307857</v>
+      </c>
+      <c r="E24" s="1">
+        <f>O16-(E16*$D$16)/$B$18</f>
+        <v>3.0782000000000025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.8296999999999457</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-1.0142999999999951</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="array" ref="D25:D28">TRANSPOSE(E24:E24)</f>
+        <v>3.0782000000000025</v>
+      </c>
+      <c r="E25" s="1">
+        <f>P16-(E16*$E$16)/$B$18</f>
+        <v>14.682599999999987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C26" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0782000000000025</v>
+      </c>
+      <c r="E26" s="1" t="e">
+        <f t="array" ref="E26:E28">TRANSPOSE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.0782000000000025</v>
+      </c>
+      <c r="E27" s="1" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C28" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0782000000000025</v>
+      </c>
+      <c r="E28" s="1" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18">
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18">
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="array" ref="C33:C35">MMULT(MINVERSE(C23:E25), B23:B25)</f>
+        <v>-0.66489480625352448</v>
+      </c>
+      <c r="D33" s="1">
+        <f>$C34</f>
+        <v>-0.424385653244712</v>
+      </c>
+      <c r="E33" s="1">
+        <f>$C35</f>
+        <v>0.16765703048743921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="18">
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-0.424385653244712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.16765703048743921</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="C38" s="1">
+        <f>C33*C17</f>
+        <v>-0.84288203131216011</v>
+      </c>
+      <c r="D38" s="1">
+        <f>D33*D17</f>
+        <v>-1.1491057687856816</v>
+      </c>
+      <c r="E38" s="1">
+        <f>E33*E17</f>
+        <v>0.2498089754262845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18">
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4">
+        <f>B17-SUM(C38:E38)</f>
+        <v>10.429871132363866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18">
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="C42" s="1">
+        <f>G42*$C$33</f>
+        <v>-0.75133113106648264</v>
+      </c>
+      <c r="D42" s="1">
+        <f>H42*$D$33</f>
+        <v>-1.4768620732915978</v>
+      </c>
+      <c r="E42" s="1">
+        <f>I42*$E$33</f>
+        <v>0.21460099902392218</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.48</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="C43" s="1">
+        <f>G43*$C$33</f>
+        <v>-1.4095769892574719</v>
+      </c>
+      <c r="D43" s="1">
+        <f>H43*$D$33</f>
+        <v>-1.1118904115011454</v>
+      </c>
+      <c r="E43" s="1">
+        <f>I43*$E$33</f>
+        <v>0.38728774042598457</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1">
+        <f>$C$39+SUM(C42:E42)</f>
+        <v>8.4162789270297083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="C46" s="1">
+        <f>$C$39+SUM(C43:E43)</f>
+        <v>8.2956914720312334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.75" style="1" customWidth="1"/>
-    <col min="14" max="16" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="18">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -12889,7 +14589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -12943,7 +14643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -12997,7 +14697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -13051,7 +14751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16">
       <c r="B5" s="1">
         <v>7</v>
       </c>
@@ -13105,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
@@ -13126,47 +14826,47 @@
         <v>14</v>
       </c>
       <c r="G7" s="1">
-        <f>SUM(G2:G5)</f>
+        <f t="shared" ref="G7:P7" si="0">SUM(G2:G5)</f>
         <v>63</v>
       </c>
       <c r="H7" s="1">
-        <f>SUM(H2:H5)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="I7" s="1">
-        <f>SUM(I2:I5)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J7" s="1">
-        <f>SUM(J2:J5)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="K7" s="1">
-        <f>SUM(K2:K5)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="L7" s="1">
-        <f>SUM(L2:L5)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="M7" s="1">
-        <f>SUM(M2:M5)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="N7" s="1">
-        <f>SUM(N2:N5)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O7" s="1">
-        <f>SUM(O2:O5)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="P7" s="1">
-        <f>SUM(P2:P5)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -13187,7 +14887,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
@@ -13208,7 +14908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="18">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -13222,7 +14922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -13243,7 +14943,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="18">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -13264,7 +14964,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="18">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -13284,7 +14984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="18">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -13303,7 +15003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -13321,7 +15021,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -13338,7 +15038,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -13355,7 +15055,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="18">
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
@@ -13369,7 +15069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="18">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -13386,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="18">
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
@@ -13394,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="18">
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
@@ -13402,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9">
       <c r="C29" s="1">
         <f>C24*C8</f>
         <v>4</v>
@@ -13416,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="18">
       <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
@@ -13425,7 +15125,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="18">
       <c r="C32" s="1" t="s">
         <v>74</v>
       </c>
@@ -13445,7 +15145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9">
       <c r="C33" s="1">
         <f>G33*$C$24</f>
         <v>1</v>
@@ -13468,7 +15168,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9">
       <c r="C34" s="1">
         <f>G34*$C$24</f>
         <v>1</v>
@@ -13491,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9">
       <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
@@ -13500,14 +15200,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9">
       <c r="C37" s="1">
         <f>$C$30+SUM(C34:E34)</f>
         <v>0.25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
